--- a/ОтчетПоЗагруженности release.xlsx
+++ b/ОтчетПоЗагруженности release.xlsx
@@ -12,9 +12,9 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_10.50.0.50_LEAD" localSheetId="0" hidden="1">Лист1!$A$3:$AT$99</definedName>
+    <definedName name="_10.50.0.50_LEAD" localSheetId="0" hidden="1">Лист1!$A$3:$AT$107</definedName>
     <definedName name="_10.50.0.50_LEAD_1" localSheetId="0" hidden="1">Лист1!$D$1</definedName>
-    <definedName name="_10.50.0.50_LEAD_2" localSheetId="0" hidden="1">Лист1!$A$101:$AT$101</definedName>
+    <definedName name="_10.50.0.50_LEAD_2" localSheetId="0" hidden="1">Лист1!$A$109:$AT$109</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Лист1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725" refMode="R1C1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="646">
   <si>
     <t>Приоритет</t>
   </si>
@@ -269,9 +269,6 @@
     <t xml:space="preserve"> (24/24/24) (Free= 0)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (14/14/14) (Free= 0)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (12/12/29) (Free= 17)</t>
   </si>
   <si>
@@ -320,12 +317,6 @@
     <t>0.350/3</t>
   </si>
   <si>
-    <t>0.350/11</t>
-  </si>
-  <si>
-    <t>РЕЛ-000012897 (11/199)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000012948 - Самовывоз на следующий день с 9:00 до 14:00</t>
   </si>
   <si>
@@ -347,9 +338,6 @@
     <t>РЕЛ-000013459 - филиал Новосибирск</t>
   </si>
   <si>
-    <t>33.672/34</t>
-  </si>
-  <si>
     <t>РЕЛ-000013459 (16/16)*</t>
   </si>
   <si>
@@ -398,9 +386,6 @@
     <t>0.181/1</t>
   </si>
   <si>
-    <t>0.424/3</t>
-  </si>
-  <si>
     <t>РЕЛ-000013664 - Московская обл.</t>
   </si>
   <si>
@@ -470,18 +455,6 @@
     <t>0.249/1</t>
   </si>
   <si>
-    <t>PЕМ-000004785 - Москва</t>
-  </si>
-  <si>
-    <t>2.566/9</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013800 - Москва</t>
-  </si>
-  <si>
-    <t>6.431/9</t>
-  </si>
-  <si>
     <t>РЕЛ-000013519 - Москва</t>
   </si>
   <si>
@@ -509,15 +482,6 @@
     <t>РЕЛ-000013659 - Дзержинск-Н.Новгород-Кстово</t>
   </si>
   <si>
-    <t>РЕЛ-000013660 - Дзержинск-Н.Новгород-Кстово</t>
-  </si>
-  <si>
-    <t>3.298/12</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013661 - Дзержинск-Н.Новгород-Кстово</t>
-  </si>
-  <si>
     <t>РЕЛ-000013701 - Ярославль-Кострома</t>
   </si>
   <si>
@@ -629,24 +593,12 @@
     <t>12.989/24</t>
   </si>
   <si>
-    <t>РЕЛ-000013796 (5/50)*</t>
-  </si>
-  <si>
     <t>3.087/11</t>
   </si>
   <si>
-    <t xml:space="preserve"> (183/184/199) (Free= 15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (50/50/50) (Free= 0)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (46/46/49) (Free= 3)</t>
   </si>
   <si>
-    <t>РЕЛ-000013729 (12/50)*</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (37/37/51) (Free= 14)</t>
   </si>
   <si>
@@ -683,9 +635,6 @@
     <t>1.999/11</t>
   </si>
   <si>
-    <t>0.373/5</t>
-  </si>
-  <si>
     <t>48.247/87</t>
   </si>
   <si>
@@ -725,9 +674,6 @@
     <t>4.617/13</t>
   </si>
   <si>
-    <t>0.291/2</t>
-  </si>
-  <si>
     <t>3.598/14</t>
   </si>
   <si>
@@ -737,27 +683,12 @@
     <t>1.638/7</t>
   </si>
   <si>
-    <t>2.176/8</t>
-  </si>
-  <si>
     <t>0.435/2</t>
   </si>
   <si>
     <t>4.690/33</t>
   </si>
   <si>
-    <t>PЕМ-000004795 - Мытищи-Щёлково</t>
-  </si>
-  <si>
-    <t>2.634/13</t>
-  </si>
-  <si>
-    <t>0.008/1</t>
-  </si>
-  <si>
-    <t>PЕМ-000004795 (1/199)*</t>
-  </si>
-  <si>
     <t>PЕМ-000004811 - Москва</t>
   </si>
   <si>
@@ -770,15 +701,9 @@
     <t>5.062/12</t>
   </si>
   <si>
-    <t>0.076/1</t>
-  </si>
-  <si>
     <t>PЕМ-000004814 - Москва</t>
   </si>
   <si>
-    <t>0.059/2</t>
-  </si>
-  <si>
     <t>ОТХ-000001251 - Мытищи-Щёлково</t>
   </si>
   <si>
@@ -800,18 +725,9 @@
     <t>0.017/1</t>
   </si>
   <si>
-    <t>РЕЛ-000013782 (2/23)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000013832 - Калужская обл</t>
   </si>
   <si>
-    <t>0.491/5</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013832 (1/26)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000013833 - Ногинск</t>
   </si>
   <si>
@@ -854,9 +770,6 @@
     <t>PЕМ-000004786 (1/46)</t>
   </si>
   <si>
-    <t>PЕМ-000004786 (2/27)*</t>
-  </si>
-  <si>
     <t>PЕМ-000004787 (2/199)</t>
   </si>
   <si>
@@ -878,9 +791,6 @@
     <t>PЕМ-000004811 (1/49)</t>
   </si>
   <si>
-    <t>PЕМ-000004811 (1/26)*</t>
-  </si>
-  <si>
     <t>PЕМ-000004813 (1/199)</t>
   </si>
   <si>
@@ -917,12 +827,6 @@
     <t>НЕ ОТГРУЖАТЬ (3/33)</t>
   </si>
   <si>
-    <t>0.143/5</t>
-  </si>
-  <si>
-    <t>ОТХ-000001250 (5/199)*</t>
-  </si>
-  <si>
     <t>ОТХ-000001251 (5/59)</t>
   </si>
   <si>
@@ -1022,9 +926,6 @@
     <t>РЕЛ-000013468 (1/16)</t>
   </si>
   <si>
-    <t>РЕЛ-000013468 (1/14)</t>
-  </si>
-  <si>
     <t>РЕЛ-000013475 (1/16)</t>
   </si>
   <si>
@@ -1193,9 +1094,6 @@
     <t>РЕЛ-000013830 (2/199)</t>
   </si>
   <si>
-    <t>РЕЛ-000013830 (1/51)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000013830 (6/59)</t>
   </si>
   <si>
@@ -1265,33 +1163,12 @@
     <t>РЕЛ-000013721 (1/199)</t>
   </si>
   <si>
-    <t>РЕЛ-000013721 (25/50)</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013721 (11/28)</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013661 (4/43)</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013796 (1/199)</t>
-  </si>
-  <si>
     <t>РЕЛ-000013796 (1/46)</t>
   </si>
   <si>
     <t>9.321/21</t>
   </si>
   <si>
-    <t>РЕЛ-000013799 (5/46)</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013799 (4/50)</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013799 (3/49)</t>
-  </si>
-  <si>
     <t>РЕЛ-000013799 (1/43)</t>
   </si>
   <si>
@@ -1319,21 +1196,12 @@
     <t>РЕЛ-000012135 (13/199)</t>
   </si>
   <si>
-    <t>PЕМ-000004785 (1/43)*</t>
-  </si>
-  <si>
-    <t>2.084/7</t>
-  </si>
-  <si>
     <t>PЕМ-000004796 - Дмитров-Дубна</t>
   </si>
   <si>
     <t>4.561/18</t>
   </si>
   <si>
-    <t>5.695/8</t>
-  </si>
-  <si>
     <t>0.670/1</t>
   </si>
   <si>
@@ -1346,12 +1214,6 @@
     <t>25.116/32</t>
   </si>
   <si>
-    <t>0.240/3</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013365 (2/16)</t>
-  </si>
-  <si>
     <t>РЕЛ-000013365 (1/24)*</t>
   </si>
   <si>
@@ -1364,12 +1226,6 @@
     <t>5.743/4</t>
   </si>
   <si>
-    <t>7.779/1</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013697 (16/23)*</t>
-  </si>
-  <si>
     <t>0.271/11</t>
   </si>
   <si>
@@ -1382,51 +1238,12 @@
     <t>РЕЛ-000013782 (2/48)</t>
   </si>
   <si>
-    <t>5.823/15</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013797 (6/60)*</t>
-  </si>
-  <si>
-    <t>0.608/2</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013800 (2/199)</t>
-  </si>
-  <si>
-    <t>2.810/5</t>
-  </si>
-  <si>
-    <t>0.100/3</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013825 (1/59)*</t>
-  </si>
-  <si>
-    <t>0.207/8</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013829 (2/28)*</t>
-  </si>
-  <si>
-    <t>0.946/10</t>
-  </si>
-  <si>
     <t>3.425/19</t>
   </si>
   <si>
-    <t>0.570/6</t>
-  </si>
-  <si>
-    <t>6.643/12</t>
-  </si>
-  <si>
     <t>1.920/22</t>
   </si>
   <si>
-    <t>1.294/8</t>
-  </si>
-  <si>
     <t>РЕЛ-000013845 (2/43)</t>
   </si>
   <si>
@@ -1436,33 +1253,15 @@
     <t>4.259/20</t>
   </si>
   <si>
-    <t>0.027/1</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013846 (1/17)*</t>
-  </si>
-  <si>
-    <t>1.098/5</t>
-  </si>
-  <si>
-    <t>4.041/7</t>
-  </si>
-  <si>
     <t>РЕЛ-000013858 - Озёры-Кашира</t>
   </si>
   <si>
     <t>3.229/19</t>
   </si>
   <si>
-    <t>РЕЛ-000013858 (1/49)</t>
-  </si>
-  <si>
     <t>РЕЛ-000013858 (1/24)</t>
   </si>
   <si>
-    <t>12.966/27</t>
-  </si>
-  <si>
     <t>РЕЛ-000013724 (2/46)</t>
   </si>
   <si>
@@ -1472,81 +1271,36 @@
     <t>20.911/6</t>
   </si>
   <si>
-    <t>РЕЛ-000013721 (14/49)</t>
-  </si>
-  <si>
     <t>РЕЛ-000013721 (4/43)</t>
   </si>
   <si>
     <t>9.722/4</t>
   </si>
   <si>
-    <t>РЕЛ-000013659 (6/24)</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013660 (17/43)*</t>
-  </si>
-  <si>
-    <t>3.897/2</t>
-  </si>
-  <si>
     <t>7.420/1</t>
   </si>
   <si>
-    <t>5.445/18</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013701 (18/28)*</t>
-  </si>
-  <si>
-    <t>5.238/2</t>
-  </si>
-  <si>
     <t>4.895/2</t>
   </si>
   <si>
-    <t>РЕЛ-000013796 (2/46)</t>
-  </si>
-  <si>
     <t>10.741/38</t>
   </si>
   <si>
     <t>PЕМ-000004805 - Москва</t>
   </si>
   <si>
-    <t>1.474/7</t>
-  </si>
-  <si>
-    <t>0.276/1</t>
-  </si>
-  <si>
-    <t>PЕМ-000004805 (1/27)*</t>
-  </si>
-  <si>
     <t>4.030/14</t>
   </si>
   <si>
-    <t>1.050/4</t>
-  </si>
-  <si>
     <t>PЕМ-000004808 - Москва</t>
   </si>
   <si>
     <t>3.189/4</t>
   </si>
   <si>
-    <t>PЕМ-000004808 (1/24)*</t>
-  </si>
-  <si>
     <t>PЕМ-000004808 (1/23)</t>
   </si>
   <si>
-    <t>0.177/3</t>
-  </si>
-  <si>
-    <t>PЕМ-000004797 (2/49)*</t>
-  </si>
-  <si>
     <t>PЕМ-000004798 - Москва</t>
   </si>
   <si>
@@ -1556,244 +1310,670 @@
     <t>PЕМ-000004798 (1/27)*</t>
   </si>
   <si>
-    <t>1.820/12</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013826 (3/33)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000013859 - Можайск-Волоколамск</t>
   </si>
   <si>
     <t>3.039/14</t>
   </si>
   <si>
-    <t>РЕЛ-000013859 (1/49)*</t>
-  </si>
-  <si>
-    <t>4.526/8</t>
-  </si>
-  <si>
-    <t>PЕМ-000004787 (6/48)*</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013529 (1/50)</t>
-  </si>
-  <si>
     <t>РЕЛ-000013529 (1/60)</t>
   </si>
   <si>
-    <t>5.609/14</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013703 (12/48)*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (4/5/16) (Free= 11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (23/23/27) (Free= 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (39/39/49) (Free= 10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (12/12/26) (Free= 14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (27/27/28) (Free= 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (18/19/27) (Free= 8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (36/36/59) (Free= 23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (12/12/17) (Free= 5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (8/8/33) (Free= 25)</t>
-  </si>
-  <si>
     <t>3.514/14</t>
   </si>
   <si>
-    <t xml:space="preserve"> (21/21/24) (Free= 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (41/41/43) (Free= 2)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (23/23/23) (Free= 0)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (15/15/50) (Free= 35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (28/28/60) (Free= 32)</t>
-  </si>
-  <si>
-    <t>0.019/2</t>
-  </si>
-  <si>
-    <t>PЕМ-000004796 (2/50)*</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013468 (13/16)</t>
-  </si>
-  <si>
     <t>3.621/11</t>
   </si>
   <si>
-    <t>РЕЛ-000013721 (8/46)</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013721 (4/24)</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013659 (6/43)</t>
-  </si>
-  <si>
-    <t>2.447/18</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013660 (1/23)</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013805 (14/60)*</t>
-  </si>
-  <si>
-    <t>0.034/2</t>
-  </si>
-  <si>
     <t>РЕЛ-000013859 (1/43)</t>
   </si>
   <si>
-    <t>2.431/18</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013529 (16/27)*</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013828 (7/199)</t>
-  </si>
-  <si>
-    <t>20.805/30</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013388 (19/49)*</t>
-  </si>
-  <si>
-    <t>24.297/28</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013468 (10/16)*</t>
-  </si>
-  <si>
-    <t>0.882/33</t>
-  </si>
-  <si>
     <t>РЕЛ-000013693 (3/43)</t>
   </si>
   <si>
-    <t>2.004/4</t>
-  </si>
-  <si>
     <t>РЕЛ-000013842 (1/34)</t>
   </si>
   <si>
-    <t>0.146/2</t>
-  </si>
-  <si>
-    <t>15.873/83</t>
-  </si>
-  <si>
-    <t>3.308/15</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013659 (3/49)*</t>
-  </si>
-  <si>
-    <t>2.651/12</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013661 (8/24)*</t>
-  </si>
-  <si>
-    <t>1.428/12</t>
-  </si>
-  <si>
-    <t>2.406/10</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013796 (1/16)</t>
-  </si>
-  <si>
-    <t>7.308/30</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013804 (30/51)*</t>
-  </si>
-  <si>
-    <t>5.947/21</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013799 (2/16)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000013799 (3/28)</t>
   </si>
   <si>
-    <t>2.384/28</t>
-  </si>
-  <si>
     <t>PЕМ-000004812 - Москва</t>
   </si>
   <si>
     <t>2.359/12</t>
   </si>
   <si>
-    <t>0.709/1</t>
-  </si>
-  <si>
     <t>PЕМ-000004812 (1/46)</t>
   </si>
   <si>
-    <t>0.213/2</t>
-  </si>
-  <si>
-    <t>0.747/6</t>
-  </si>
-  <si>
-    <t>1.431/14</t>
-  </si>
-  <si>
     <t>РЕЛ-000013828 (5/34)</t>
   </si>
   <si>
-    <t>2.517/24</t>
-  </si>
-  <si>
     <t>РЕЛ-000013697 (5/48)</t>
   </si>
   <si>
-    <t>9.869/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (12/12/16) (Free= 4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (28/28/34) (Free= 6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (13/14/46) (Free= 32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (35/35/46) (Free= 11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (43/43/48) (Free= 5)</t>
+    <t xml:space="preserve"> (9/9/16) (Free= 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (13/13/14) (Free= 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (186/187/199) (Free= 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (29/29/34) (Free= 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (12/13/46) (Free= 33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (3/4/16) (Free= 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (31/31/46) (Free= 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (48/48/50) (Free= 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (28/28/28) (Free= 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (42/42/49) (Free= 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (17/17/24) (Free= 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (40/40/43) (Free= 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (48/48/48) (Free= 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (27/27/27) (Free= 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (23/23/26) (Free= 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (26/26/28) (Free= 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (13/13/50) (Free= 37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (33/33/60) (Free= 27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (20/21/27) (Free= 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (44/44/59) (Free= 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (17/17/17) (Free= 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (15/15/33) (Free= 18)</t>
+  </si>
+  <si>
+    <t>0.350/10</t>
+  </si>
+  <si>
+    <t>РЕЛ-000012897 (10/199)*</t>
+  </si>
+  <si>
+    <t>1.474/8</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013365 (7/16)</t>
+  </si>
+  <si>
+    <t>17.355/21</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013388 (10/49)*</t>
+  </si>
+  <si>
+    <t>34.400/35</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013459 (1/16)</t>
+  </si>
+  <si>
+    <t>6.359/12</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013468 (6/16)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013468 (2/16)</t>
+  </si>
+  <si>
+    <t>1.090/40</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013693 (6/49)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013693 (1/24)</t>
+  </si>
+  <si>
+    <t>12.967/27</t>
+  </si>
+  <si>
+    <t>13.903/77</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013721 (7/46)</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013721 (22/50)</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013721 (10/28)</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013721 (12/49)</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013721 (5/24)</t>
+  </si>
+  <si>
+    <t>1.733/11</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013659 (2/49)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013659 (4/24)</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013659 (5/43)</t>
+  </si>
+  <si>
+    <t>5.334/18</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013701 (17/28)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013701 (1/50)</t>
+  </si>
+  <si>
+    <t>5.238/16</t>
+  </si>
+  <si>
+    <t>0.443/4</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013729 (4/50)*</t>
+  </si>
+  <si>
+    <t>1.882/3</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013796 (2/50)*</t>
+  </si>
+  <si>
+    <t>6.276/25</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013804 (25/51)*</t>
+  </si>
+  <si>
+    <t>1.386/11</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013799 (1/46)</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013799 (2/50)</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013799 (1/49)</t>
+  </si>
+  <si>
+    <t>PЕМ-000004806 - Москва</t>
+  </si>
+  <si>
+    <t>3.547/9</t>
+  </si>
+  <si>
+    <t>0.943/5</t>
+  </si>
+  <si>
+    <t>PЕМ-000004806 (2/50)</t>
+  </si>
+  <si>
+    <t>PЕМ-000004806 (3/27)*</t>
+  </si>
+  <si>
+    <t>1.463/7</t>
+  </si>
+  <si>
+    <t>0.824/5</t>
+  </si>
+  <si>
+    <t>PЕМ-000004805 (3/27)*</t>
+  </si>
+  <si>
+    <t>PЕМ-000004805 (2/49)</t>
+  </si>
+  <si>
+    <t>PЕМ-000004803 - Москва</t>
+  </si>
+  <si>
+    <t>4.606/4</t>
+  </si>
+  <si>
+    <t>2.314/5</t>
+  </si>
+  <si>
+    <t>PЕМ-000004803 (1/24)</t>
+  </si>
+  <si>
+    <t>PЕМ-000004803 (4/43)*</t>
+  </si>
+  <si>
+    <t>PЕМ-000004801 - Москва</t>
+  </si>
+  <si>
+    <t>4.520/10</t>
+  </si>
+  <si>
+    <t>2.810/10</t>
+  </si>
+  <si>
+    <t>PЕМ-000004801 (8/43)</t>
+  </si>
+  <si>
+    <t>PЕМ-000004801 (1/23)*</t>
+  </si>
+  <si>
+    <t>PЕМ-000004801 (1/48)</t>
+  </si>
+  <si>
+    <t>2.977/33</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013805 (19/60)*</t>
+  </si>
+  <si>
+    <t>0.414/3</t>
+  </si>
+  <si>
+    <t>PЕМ-000004814 (1/27)*</t>
+  </si>
+  <si>
+    <t>0.717/3</t>
+  </si>
+  <si>
+    <t>PЕМ-000004812 (2/50)</t>
+  </si>
+  <si>
+    <t>2.102/10</t>
+  </si>
+  <si>
+    <t>PЕМ-000004811 (7/26)*</t>
+  </si>
+  <si>
+    <t>PЕМ-000004810 - Москва</t>
+  </si>
+  <si>
+    <t>1.806/3</t>
+  </si>
+  <si>
+    <t>0.044/2</t>
+  </si>
+  <si>
+    <t>PЕМ-000004810 (2/43)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013849 - Москва</t>
+  </si>
+  <si>
+    <t>2.762/6</t>
+  </si>
+  <si>
+    <t>0.056/2</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013849 (1/199)</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013849 (1/34)</t>
+  </si>
+  <si>
+    <t>0.257/3</t>
+  </si>
+  <si>
+    <t>PЕМ-000004808 (2/24)*</t>
+  </si>
+  <si>
+    <t>ОТХ-000001252 - Москва</t>
+  </si>
+  <si>
+    <t>1.929/8</t>
+  </si>
+  <si>
+    <t>0.010/3</t>
+  </si>
+  <si>
+    <t>ОТХ-000001252 (2/43)</t>
+  </si>
+  <si>
+    <t>ОТХ-000001252 (1/48)</t>
+  </si>
+  <si>
+    <t>PЕМ-000004804 - Москва</t>
+  </si>
+  <si>
+    <t>2.578/13</t>
+  </si>
+  <si>
+    <t>0.733/1</t>
+  </si>
+  <si>
+    <t>PЕМ-000004804 (1/17)*</t>
+  </si>
+  <si>
+    <t>PЕМ-000004799 - Москва</t>
+  </si>
+  <si>
+    <t>1.769/19</t>
+  </si>
+  <si>
+    <t>0.143/2</t>
+  </si>
+  <si>
+    <t>PЕМ-000004799 (2/199)</t>
+  </si>
+  <si>
+    <t>0.644/7</t>
+  </si>
+  <si>
+    <t>PЕМ-000004797 (6/49)*</t>
+  </si>
+  <si>
+    <t>2.154/12</t>
+  </si>
+  <si>
+    <t>0.958/8</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013826 (5/33)*</t>
+  </si>
+  <si>
+    <t>0.104/3</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013859 (1/46)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013859 (1/49)</t>
+  </si>
+  <si>
+    <t>5.952/10</t>
+  </si>
+  <si>
+    <t>PЕМ-000004787 (2/43)</t>
+  </si>
+  <si>
+    <t>PЕМ-000004787 (6/48)</t>
+  </si>
+  <si>
+    <t>PЕМ-000004795 - Химки-Клин</t>
+  </si>
+  <si>
+    <t>3.798/14</t>
+  </si>
+  <si>
+    <t>0.054/2</t>
+  </si>
+  <si>
+    <t>PЕМ-000004795 (2/199)</t>
+  </si>
+  <si>
+    <t>3.085/20</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013529 (2/50)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013529 (17/27)</t>
+  </si>
+  <si>
+    <t>7.008/16</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013703 (2/16)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013703 (12/48)</t>
+  </si>
+  <si>
+    <t>1.485/15</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013828 (8/199)</t>
+  </si>
+  <si>
+    <t>7.779/29</t>
+  </si>
+  <si>
+    <t>2.849/26</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013697 (2/43)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013697 (16/23)</t>
+  </si>
+  <si>
+    <t>8.391/17</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013797 (2/51)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013797 (6/60)</t>
+  </si>
+  <si>
+    <t>10.581/15</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013782 (1/50)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013782 (2/23)</t>
+  </si>
+  <si>
+    <t>0.353/9</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013829 (1/26)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013829 (2/28)</t>
+  </si>
+  <si>
+    <t>0.160/6</t>
+  </si>
+  <si>
+    <t>ОТХ-000001250 (6/199)*</t>
+  </si>
+  <si>
+    <t>PЕМ-000004794 - Москва</t>
+  </si>
+  <si>
+    <t>1.590/7</t>
+  </si>
+  <si>
+    <t>0.039/1</t>
+  </si>
+  <si>
+    <t>PЕМ-000004794 (1/27)*</t>
+  </si>
+  <si>
+    <t>0.097/4</t>
+  </si>
+  <si>
+    <t>PЕМ-000004796 (4/50)*</t>
+  </si>
+  <si>
+    <t>1.485/5</t>
+  </si>
+  <si>
+    <t>PЕМ-000004813 (3/48)*</t>
+  </si>
+  <si>
+    <t>PЕМ-000004813 (1/27)</t>
+  </si>
+  <si>
+    <t>2.129/8</t>
+  </si>
+  <si>
+    <t>PЕМ-000004786 (3/27)*</t>
+  </si>
+  <si>
+    <t>6.643/16</t>
+  </si>
+  <si>
+    <t>2.026/4</t>
+  </si>
+  <si>
+    <t>1.339/10</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013845 (2/24)*</t>
+  </si>
+  <si>
+    <t>0.028/1</t>
+  </si>
+  <si>
+    <t>1.957/8</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013848 (1/46)</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013848 (2/50)*</t>
+  </si>
+  <si>
+    <t>0.795/7</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013832 (3/26)*</t>
+  </si>
+  <si>
+    <t>5.695/10</t>
+  </si>
+  <si>
+    <t>0.374/5</t>
+  </si>
+  <si>
+    <t>0.986/12</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013830 (3/51)*</t>
+  </si>
+  <si>
+    <t>0.016/2</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013834 (1/51)*</t>
+  </si>
+  <si>
+    <t>0.882/7</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013836 (1/43)</t>
+  </si>
+  <si>
+    <t>4.041/20</t>
+  </si>
+  <si>
+    <t>0.445/4</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013850 (1/49)</t>
+  </si>
+  <si>
+    <t>0.295/3</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013831 (1/26)*</t>
+  </si>
+  <si>
+    <t>3.149/9</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013827 - Тула-Суворов</t>
+  </si>
+  <si>
+    <t>2.165/12</t>
+  </si>
+  <si>
+    <t>0.070/4</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013827 (4/59)*</t>
+  </si>
+  <si>
+    <t>2.810/15</t>
+  </si>
+  <si>
+    <t>0.220/7</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013825 (5/59)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013837 - Мытищи-Щёлково</t>
+  </si>
+  <si>
+    <t>4.206/9</t>
+  </si>
+  <si>
+    <t>0.010/1</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013837 (1/26)*</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013840 - Воскресенск-Егорьевск-Шатура</t>
+  </si>
+  <si>
+    <t>3.263/14</t>
+  </si>
+  <si>
+    <t>0.603/5</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013840 (5/33)*</t>
+  </si>
+  <si>
+    <t>0.052/5</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013846 (5/17)*</t>
+  </si>
+  <si>
+    <t>0.246/9</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013858 (1/50)</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013858 (2/28)</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013858 (5/49)</t>
   </si>
 </sst>
 </file>
@@ -2221,8 +2401,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица__10.50.0.50_LEAD" displayName="Таблица__10.50.0.50_LEAD" ref="A3:AT99" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A3:AT99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица__10.50.0.50_LEAD" displayName="Таблица__10.50.0.50_LEAD" ref="A3:AT107" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A3:AT107"/>
   <tableColumns count="46">
     <tableColumn id="1" uniqueName="1" name="№ п/п" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" uniqueName="2" name="ПЛ+Направление" queryTableFieldId="2"/>
@@ -2276,7 +2456,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица__10.50.0.50_LEAD_2" displayName="Таблица__10.50.0.50_LEAD_2" ref="A101:AT101" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица__10.50.0.50_LEAD_2" displayName="Таблица__10.50.0.50_LEAD_2" ref="A109:AT109" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="46">
     <tableColumn id="1" uniqueName="1" name="№ п/п" queryTableFieldId="1" headerRowDxfId="13" dataDxfId="9"/>
     <tableColumn id="2" uniqueName="2" name="ПЛ+Направление" queryTableFieldId="2"/>
@@ -2614,7 +2794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB102"/>
+  <dimension ref="A1:BB110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2630,9 +2810,9 @@
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="21.140625" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" customWidth="1"/>
-    <col min="13" max="15" width="21.140625" customWidth="1"/>
+    <col min="11" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="15" width="21.140625" customWidth="1"/>
     <col min="16" max="16" width="20.42578125" customWidth="1"/>
     <col min="17" max="17" width="23.28515625" customWidth="1"/>
     <col min="18" max="18" width="21.140625" customWidth="1"/>
@@ -2641,13 +2821,13 @@
     <col min="24" max="24" width="22.28515625" customWidth="1"/>
     <col min="25" max="25" width="21.140625" customWidth="1"/>
     <col min="26" max="27" width="22.28515625" customWidth="1"/>
-    <col min="28" max="28" width="21.7109375" customWidth="1"/>
-    <col min="29" max="31" width="22.28515625" customWidth="1"/>
-    <col min="32" max="34" width="21.7109375" customWidth="1"/>
-    <col min="35" max="39" width="22.28515625" customWidth="1"/>
+    <col min="28" max="34" width="21.7109375" customWidth="1"/>
+    <col min="35" max="36" width="22.28515625" customWidth="1"/>
+    <col min="37" max="38" width="21.7109375" customWidth="1"/>
+    <col min="39" max="39" width="22.28515625" customWidth="1"/>
     <col min="40" max="40" width="21.7109375" customWidth="1"/>
     <col min="41" max="41" width="21.140625" customWidth="1"/>
-    <col min="42" max="42" width="21.5703125" customWidth="1"/>
+    <col min="42" max="42" width="21.7109375" customWidth="1"/>
     <col min="43" max="43" width="21.140625" customWidth="1"/>
     <col min="44" max="46" width="22.42578125" customWidth="1"/>
     <col min="47" max="47" width="21.140625" customWidth="1"/>
@@ -2663,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="4">
-        <v>43276.860667326386</v>
+        <v>43276.892178506947</v>
       </c>
     </row>
     <row r="2" spans="1:54" ht="18.75">
@@ -2862,25 +3042,28 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="13">
-        <v>43277</v>
+        <v>42871</v>
       </c>
       <c r="E4" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>427</v>
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:54">
@@ -2888,31 +3071,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="13">
-        <v>43277</v>
+        <v>43011</v>
       </c>
       <c r="E5" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>428</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="s">
-        <v>270</v>
-      </c>
-      <c r="V5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:54">
@@ -2920,25 +3097,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="13">
-        <v>43277</v>
+        <v>43013</v>
       </c>
       <c r="E6" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>431</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>210</v>
-      </c>
-      <c r="V6" t="s">
-        <v>276</v>
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:54">
@@ -2946,25 +3123,43 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="13">
-        <v>43277</v>
+        <v>43276.88958333333</v>
       </c>
       <c r="E7" s="1">
-        <v>12</v>
+        <v>825</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="Q7" t="s">
-        <v>281</v>
+        <v>257</v>
+      </c>
+      <c r="S7" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:54">
@@ -2972,28 +3167,37 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="13">
-        <v>42871</v>
+        <v>43278</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>177</v>
+        <v>225</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:54">
@@ -3001,25 +3205,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="13">
-        <v>43011</v>
+        <v>43254</v>
       </c>
       <c r="E9" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>285</v>
+        <v>87</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:54">
@@ -3027,25 +3231,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="13">
-        <v>43013</v>
+        <v>43258.441666666666</v>
       </c>
       <c r="E10" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="Q10" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:54">
@@ -3053,43 +3257,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="13">
-        <v>43276.820138888892</v>
+        <v>43260</v>
       </c>
       <c r="E11" s="1">
-        <v>825</v>
+        <v>5</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>181</v>
+        <v>388</v>
       </c>
       <c r="G11" t="s">
-        <v>211</v>
+        <v>389</v>
       </c>
       <c r="Q11" t="s">
-        <v>287</v>
-      </c>
-      <c r="S11" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>290</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:54">
@@ -3097,25 +3283,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="13">
-        <v>43277</v>
+        <v>43273</v>
       </c>
       <c r="E12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>215</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>295</v>
+        <v>19</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:54">
@@ -3123,37 +3309,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="13">
-        <v>43278</v>
+        <v>43278.668055555558</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>296</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>299</v>
+        <v>461</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:54">
@@ -3161,25 +3335,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="13">
-        <v>43277</v>
+        <v>43270</v>
       </c>
       <c r="E14" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>252</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>301</v>
+        <v>95</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:54">
@@ -3187,25 +3361,28 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>390</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="13">
-        <v>43254</v>
+        <v>43278</v>
       </c>
       <c r="E15" s="1">
         <v>17</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>87</v>
+        <v>391</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>302</v>
+        <v>463</v>
+      </c>
+      <c r="M15" t="s">
+        <v>464</v>
+      </c>
+      <c r="N15" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:54">
@@ -3213,25 +3390,28 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="13">
-        <v>43258.441666666666</v>
+        <v>43278.620833333334</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="Q16" t="s">
-        <v>303</v>
+        <v>284</v>
+      </c>
+      <c r="V16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:42">
@@ -3239,25 +3419,31 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="13">
-        <v>43260</v>
+        <v>43277.621527777781</v>
       </c>
       <c r="E17" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>432</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>304</v>
+        <v>465</v>
+      </c>
+      <c r="X17" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:42">
@@ -3265,25 +3451,40 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="13">
-        <v>43273</v>
+        <v>43278</v>
       </c>
       <c r="E18" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>92</v>
+        <v>467</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L18" t="s">
+        <v>468</v>
+      </c>
+      <c r="N18" t="s">
+        <v>288</v>
+      </c>
+      <c r="O18" t="s">
+        <v>289</v>
+      </c>
+      <c r="P18" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:42">
@@ -3291,25 +3492,37 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="13">
-        <v>43278.668055555558</v>
+        <v>43278</v>
       </c>
       <c r="E19" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="I19" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" t="s">
+        <v>291</v>
+      </c>
+      <c r="N19" t="s">
+        <v>292</v>
+      </c>
+      <c r="O19" t="s">
+        <v>293</v>
+      </c>
+      <c r="P19" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:42">
@@ -3317,25 +3530,34 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="13">
-        <v>43270</v>
+        <v>43278</v>
       </c>
       <c r="E20" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>305</v>
+        <v>469</v>
+      </c>
+      <c r="L20" t="s">
+        <v>470</v>
+      </c>
+      <c r="M20" t="s">
+        <v>471</v>
+      </c>
+      <c r="N20" t="s">
+        <v>393</v>
+      </c>
+      <c r="O20" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:42">
@@ -3343,52 +3565,40 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="13">
-        <v>43277.75</v>
+        <v>43278</v>
       </c>
       <c r="E21" s="1">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>183</v>
+        <v>394</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>306</v>
-      </c>
-      <c r="R21" t="s">
-        <v>307</v>
-      </c>
-      <c r="S21" t="s">
-        <v>308</v>
-      </c>
-      <c r="T21" t="s">
-        <v>309</v>
-      </c>
-      <c r="V21" t="s">
-        <v>310</v>
-      </c>
-      <c r="W21" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>313</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>314</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>315</v>
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>296</v>
+      </c>
+      <c r="J21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" t="s">
+        <v>297</v>
+      </c>
+      <c r="N21" t="s">
+        <v>298</v>
+      </c>
+      <c r="O21" t="s">
+        <v>299</v>
+      </c>
+      <c r="P21" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -3396,28 +3606,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>434</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="13">
-        <v>43278</v>
+        <v>43274</v>
       </c>
       <c r="E22" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>435</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
-        <v>436</v>
-      </c>
-      <c r="M22" t="s">
-        <v>437</v>
-      </c>
-      <c r="N22" t="s">
-        <v>438</v>
+        <v>110</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -3425,28 +3632,55 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="13">
-        <v>43278.620833333334</v>
+        <v>43278.64166666667</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="Q23" t="s">
-        <v>316</v>
+        <v>302</v>
+      </c>
+      <c r="R23" t="s">
+        <v>303</v>
+      </c>
+      <c r="S23" t="s">
+        <v>304</v>
+      </c>
+      <c r="T23" t="s">
+        <v>305</v>
       </c>
       <c r="V23" t="s">
-        <v>101</v>
+        <v>306</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:42">
@@ -3454,31 +3688,34 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="13">
-        <v>43277.621527777781</v>
+        <v>43277.728472222225</v>
       </c>
       <c r="E24" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
-        <v>547</v>
-      </c>
-      <c r="X24" t="s">
+        <v>117</v>
+      </c>
+      <c r="S24" t="s">
+        <v>314</v>
+      </c>
+      <c r="T24" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG24" t="s">
         <v>317</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:42">
@@ -3486,37 +3723,34 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="13">
-        <v>43278</v>
+        <v>43278.361111111109</v>
       </c>
       <c r="E25" s="1">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" t="s">
-        <v>319</v>
-      </c>
-      <c r="N25" t="s">
-        <v>320</v>
-      </c>
-      <c r="O25" t="s">
-        <v>321</v>
-      </c>
-      <c r="P25" t="s">
-        <v>322</v>
+        <v>472</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:42">
@@ -3524,37 +3758,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="13">
-        <v>43278</v>
+        <v>43278.370138888888</v>
       </c>
       <c r="E26" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>187</v>
+        <v>396</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" t="s">
-        <v>107</v>
-      </c>
-      <c r="L26" t="s">
-        <v>323</v>
-      </c>
-      <c r="N26" t="s">
-        <v>324</v>
-      </c>
-      <c r="O26" t="s">
-        <v>325</v>
-      </c>
-      <c r="P26" t="s">
-        <v>326</v>
+        <v>397</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:42">
@@ -3562,37 +3784,55 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="13">
-        <v>43278</v>
+        <v>43280</v>
       </c>
       <c r="E27" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
-        <v>549</v>
-      </c>
-      <c r="L27" t="s">
-        <v>550</v>
-      </c>
-      <c r="M27" t="s">
-        <v>534</v>
-      </c>
-      <c r="N27" t="s">
-        <v>439</v>
-      </c>
-      <c r="O27" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>323</v>
+      </c>
+      <c r="R27" t="s">
+        <v>324</v>
+      </c>
+      <c r="T27" t="s">
+        <v>325</v>
+      </c>
+      <c r="V27" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE27" t="s">
         <v>327</v>
       </c>
-      <c r="P27" t="s">
+      <c r="AF27" t="s">
         <v>328</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>331</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:42">
@@ -3600,39 +3840,24 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="13">
-        <v>43278</v>
+        <v>43276.415277777778</v>
       </c>
       <c r="E28" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>440</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" t="s">
-        <v>329</v>
-      </c>
-      <c r="J28" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28" t="s">
-        <v>330</v>
-      </c>
-      <c r="N28" t="s">
-        <v>331</v>
-      </c>
-      <c r="O28" t="s">
-        <v>332</v>
-      </c>
-      <c r="P28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI28" t="s">
         <v>333</v>
       </c>
     </row>
@@ -3641,25 +3866,31 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
       <c r="D29" s="13">
-        <v>43274</v>
+        <v>43279.503472222219</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="Q29" t="s">
         <v>334</v>
+      </c>
+      <c r="S29" t="s">
+        <v>335</v>
+      </c>
+      <c r="T29" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:42">
@@ -3667,55 +3898,28 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="13">
-        <v>43278.64166666667</v>
+        <v>43278.540972222225</v>
       </c>
       <c r="E30" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="G30" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>335</v>
-      </c>
-      <c r="R30" t="s">
-        <v>336</v>
-      </c>
-      <c r="S30" t="s">
         <v>337</v>
       </c>
-      <c r="T30" t="s">
+      <c r="AD30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE30" t="s">
         <v>338</v>
-      </c>
-      <c r="V30" t="s">
-        <v>339</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>343</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>344</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:42">
@@ -3723,25 +3927,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31" s="13">
-        <v>43278</v>
+        <v>43279.657638888886</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>441</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>346</v>
+        <v>138</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:42">
@@ -3749,998 +3953,998 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
       <c r="D32" s="13">
-        <v>43277.728472222225</v>
+        <v>43277</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
-      </c>
-      <c r="S32" t="s">
-        <v>347</v>
-      </c>
-      <c r="T32" t="s">
-        <v>348</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:43">
+        <v>200</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D33" s="13">
-        <v>43278.361111111109</v>
+        <v>43273</v>
       </c>
       <c r="E33" s="1">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>351</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43">
+        <v>19</v>
+      </c>
+      <c r="V33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D34" s="13">
-        <v>43278.370138888888</v>
+        <v>43264</v>
       </c>
       <c r="E34" s="1">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>444</v>
+        <v>141</v>
       </c>
       <c r="G34" t="s">
-        <v>445</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43">
+        <v>19</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
       <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D35" s="13">
-        <v>43280</v>
+        <v>43278</v>
       </c>
       <c r="E35" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G35" t="s">
-        <v>129</v>
+        <v>475</v>
       </c>
       <c r="Q35" t="s">
-        <v>356</v>
-      </c>
-      <c r="R35" t="s">
-        <v>357</v>
-      </c>
-      <c r="T35" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="V35" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>361</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>362</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>363</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>364</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:43">
+        <v>408</v>
+      </c>
+      <c r="W35" t="s">
+        <v>372</v>
+      </c>
+      <c r="X35" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D36" s="13">
-        <v>43276.415277777778</v>
+        <v>43278</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="37" spans="1:43">
+        <v>476</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>374</v>
+      </c>
+      <c r="V36" t="s">
+        <v>477</v>
+      </c>
+      <c r="W36" t="s">
+        <v>478</v>
+      </c>
+      <c r="X36" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>480</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D37" s="13">
-        <v>43279.503472222219</v>
+        <v>43278</v>
       </c>
       <c r="E37" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>193</v>
+        <v>412</v>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>367</v>
-      </c>
-      <c r="S37" t="s">
-        <v>368</v>
-      </c>
-      <c r="T37" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43">
+        <v>482</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D38" s="13">
-        <v>43278.540972222225</v>
+        <v>43278</v>
       </c>
       <c r="E38" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>136</v>
+        <v>413</v>
       </c>
       <c r="G38" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="39" spans="1:43">
+        <v>486</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>487</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D39" s="13">
-        <v>43277</v>
+        <v>43277.441666666666</v>
       </c>
       <c r="E39" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>147</v>
+        <v>489</v>
       </c>
       <c r="G39" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="40" spans="1:43">
+        <v>490</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39">
       <c r="A40" s="3">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D40" s="13">
-        <v>43279.657638888886</v>
+        <v>43277</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>143</v>
+        <v>414</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="41" spans="1:43">
+        <v>492</v>
+      </c>
+      <c r="V40" t="s">
+        <v>375</v>
+      </c>
+      <c r="W40" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39">
       <c r="A41" s="3">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D41" s="13">
         <v>43277</v>
       </c>
       <c r="E41" s="1">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="G41" t="s">
-        <v>453</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>377</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>378</v>
-      </c>
-      <c r="AO41" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="42" spans="1:43">
+        <v>494</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39">
       <c r="A42" s="3">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D42" s="13">
         <v>43277</v>
       </c>
       <c r="E42" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>384</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>385</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>386</v>
-      </c>
-      <c r="AQ42" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="43" spans="1:43">
+        <v>496</v>
+      </c>
+      <c r="V42" t="s">
+        <v>497</v>
+      </c>
+      <c r="W42" t="s">
+        <v>498</v>
+      </c>
+      <c r="X42" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39">
       <c r="A43" s="3">
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
+        <v>500</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D43" s="13">
         <v>43277</v>
       </c>
       <c r="E43" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>228</v>
+        <v>501</v>
       </c>
       <c r="G43" t="s">
-        <v>229</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="44" spans="1:43">
+        <v>502</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39">
       <c r="A44" s="3">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>255</v>
+        <v>416</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D44" s="13">
         <v>43277</v>
       </c>
       <c r="E44" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>230</v>
+        <v>505</v>
       </c>
       <c r="G44" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="1:43">
+        <v>506</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>507</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39">
       <c r="A45" s="3">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>258</v>
+        <v>509</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D45" s="13">
         <v>43277</v>
       </c>
       <c r="E45" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>231</v>
+        <v>510</v>
       </c>
       <c r="G45" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>391</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:43">
+        <v>511</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>512</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39">
       <c r="A46" s="3">
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>259</v>
+        <v>514</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D46" s="13">
         <v>43277</v>
       </c>
       <c r="E46" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>260</v>
+        <v>515</v>
       </c>
       <c r="G46" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:43">
+        <v>516</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>517</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39">
       <c r="A47" s="3">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D47" s="13">
         <v>43277</v>
       </c>
       <c r="E47" s="1">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>458</v>
+        <v>216</v>
       </c>
       <c r="G47" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="Q47" t="s">
-        <v>394</v>
-      </c>
-      <c r="AO47" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:43">
+        <v>379</v>
+      </c>
+      <c r="V47" t="s">
+        <v>380</v>
+      </c>
+      <c r="W47" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39">
       <c r="A48" s="3">
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D48" s="13">
         <v>43277</v>
       </c>
       <c r="E48" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>233</v>
+        <v>417</v>
       </c>
       <c r="G48" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP48" t="s">
-        <v>396</v>
-      </c>
-      <c r="AQ48" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="49" spans="1:42">
+        <v>522</v>
+      </c>
+      <c r="V48" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43">
       <c r="A49" s="3">
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>263</v>
+        <v>434</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D49" s="13">
         <v>43277</v>
       </c>
       <c r="E49" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="G49" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>398</v>
-      </c>
-      <c r="S49" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="50" spans="1:42">
+        <v>524</v>
+      </c>
+      <c r="V49" t="s">
+        <v>436</v>
+      </c>
+      <c r="W49" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43">
       <c r="A50" s="3">
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D50" s="13">
         <v>43277</v>
       </c>
       <c r="E50" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>461</v>
+        <v>218</v>
       </c>
       <c r="G50" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM50" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="51" spans="1:42">
+        <v>526</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>248</v>
+      </c>
+      <c r="W50" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43">
       <c r="A51" s="3">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>528</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D51" s="13">
         <v>43277</v>
       </c>
       <c r="E51" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G51" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="AC51" t="s">
-        <v>463</v>
-      </c>
-      <c r="AO51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:42">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43">
       <c r="A52" s="3">
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>464</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D52" s="13">
-        <v>43277</v>
+        <v>43266</v>
       </c>
       <c r="E52" s="1">
+        <v>12</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="G52" t="s">
-        <v>466</v>
-      </c>
-      <c r="AP52" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="53" spans="1:42">
+      <c r="Q52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43">
       <c r="A53" s="3">
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>266</v>
+        <v>532</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D53" s="13">
         <v>43277</v>
       </c>
       <c r="E53" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="G53" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q53" t="s">
         <v>535</v>
       </c>
-      <c r="G53" t="s">
-        <v>468</v>
-      </c>
-      <c r="AM53" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:42">
+      <c r="S53" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43">
       <c r="A54" s="3">
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>267</v>
+        <v>418</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D54" s="13">
         <v>43277</v>
       </c>
       <c r="E54" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="G54" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="55" spans="1:42">
+        <v>537</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>538</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43">
       <c r="A55" s="3">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>539</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D55" s="13">
         <v>43277</v>
       </c>
       <c r="E55" s="1">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>269</v>
+        <v>540</v>
       </c>
       <c r="G55" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="56" spans="1:42">
+        <v>541</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43">
       <c r="A56" s="3">
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D56" s="13">
         <v>43277</v>
       </c>
       <c r="E56" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
       <c r="G56" t="s">
-        <v>555</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>472</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="57" spans="1:42">
+        <v>546</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43">
       <c r="A57" s="3">
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>548</v>
       </c>
       <c r="C57" s="1">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D57" s="13">
-        <v>43273</v>
+        <v>43277</v>
       </c>
       <c r="E57" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>149</v>
+        <v>549</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
-      </c>
-      <c r="V57" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="58" spans="1:42">
+        <v>550</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43">
       <c r="A58" s="3">
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="C58" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D58" s="13">
-        <v>43264</v>
+        <v>43277</v>
       </c>
       <c r="E58" s="1">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:42">
+        <v>552</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43">
       <c r="A59" s="3">
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>421</v>
       </c>
       <c r="C59" s="1">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D59" s="13">
-        <v>43278</v>
+        <v>43277</v>
       </c>
       <c r="E59" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>196</v>
+        <v>422</v>
       </c>
       <c r="G59" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>405</v>
-      </c>
-      <c r="V59" t="s">
-        <v>475</v>
-      </c>
-      <c r="W59" t="s">
-        <v>406</v>
-      </c>
-      <c r="X59" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="60" spans="1:42">
+        <v>128</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43">
       <c r="A60" s="3">
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="C60" s="1">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D60" s="13">
-        <v>43278</v>
+        <v>43277</v>
       </c>
       <c r="E60" s="1">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>477</v>
+        <v>190</v>
       </c>
       <c r="G60" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>408</v>
-      </c>
-      <c r="V60" t="s">
-        <v>536</v>
-      </c>
-      <c r="W60" t="s">
-        <v>409</v>
-      </c>
-      <c r="X60" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>537</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="61" spans="1:42">
+        <v>554</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43">
       <c r="A61" s="3">
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C61" s="1">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D61" s="13">
-        <v>43278</v>
+        <v>43277</v>
       </c>
       <c r="E61" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>480</v>
+        <v>203</v>
       </c>
       <c r="G61" t="s">
-        <v>557</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>558</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>481</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="62" spans="1:42">
+        <v>555</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>347</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43">
       <c r="A62" s="3">
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>424</v>
       </c>
       <c r="C62" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D62" s="13">
-        <v>43278</v>
+        <v>43277</v>
       </c>
       <c r="E62" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>158</v>
+        <v>425</v>
       </c>
       <c r="G62" t="s">
-        <v>539</v>
+        <v>557</v>
+      </c>
+      <c r="V62" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>559</v>
       </c>
       <c r="AC62" t="s">
-        <v>482</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="63" spans="1:42">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43">
       <c r="A63" s="3">
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="C63" s="1">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D63" s="13">
-        <v>43278</v>
+        <v>43263</v>
       </c>
       <c r="E63" s="1">
         <v>16</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>483</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>559</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>560</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="64" spans="1:42">
+        <v>19</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43">
       <c r="A64" s="3">
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="C64" s="1">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D64" s="13">
-        <v>43278</v>
+        <v>43277</v>
       </c>
       <c r="E64" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>485</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>486</v>
+        <v>560</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>561</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:43">
@@ -4748,25 +4952,25 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>563</v>
       </c>
       <c r="C65" s="1">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D65" s="13">
-        <v>43277.441666666666</v>
+        <v>43277</v>
       </c>
       <c r="E65" s="1">
         <v>14</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>487</v>
+        <v>564</v>
       </c>
       <c r="G65" t="s">
-        <v>561</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>202</v>
+        <v>565</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:43">
@@ -4774,37 +4978,31 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C66" s="1">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D66" s="13">
-        <v>43277</v>
+        <v>43278</v>
       </c>
       <c r="E66" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>488</v>
+        <v>113</v>
       </c>
       <c r="G66" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>412</v>
-      </c>
-      <c r="T66" t="s">
-        <v>413</v>
-      </c>
-      <c r="U66" t="s">
-        <v>563</v>
-      </c>
-      <c r="V66" t="s">
-        <v>489</v>
-      </c>
-      <c r="W66" t="s">
-        <v>197</v>
+        <v>567</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>568</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -4812,25 +5010,31 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="C67" s="1">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D67" s="13">
-        <v>43277</v>
+        <v>43278</v>
       </c>
       <c r="E67" s="1">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>490</v>
+        <v>179</v>
       </c>
       <c r="G67" t="s">
-        <v>564</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>565</v>
+        <v>570</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>322</v>
+      </c>
+      <c r="U67" t="s">
+        <v>571</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="68" spans="1:43">
@@ -4838,43 +5042,34 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="C68" s="1">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D68" s="13">
         <v>43277</v>
       </c>
       <c r="E68" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>414</v>
+        <v>205</v>
       </c>
       <c r="G68" t="s">
-        <v>566</v>
-      </c>
-      <c r="U68" t="s">
-        <v>567</v>
-      </c>
-      <c r="V68" t="s">
-        <v>415</v>
-      </c>
-      <c r="W68" t="s">
-        <v>416</v>
-      </c>
-      <c r="X68" t="s">
-        <v>568</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>417</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>419</v>
+        <v>573</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>574</v>
+      </c>
+      <c r="S68" t="s">
+        <v>437</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>348</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:43">
@@ -4882,25 +5077,40 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>491</v>
+        <v>120</v>
       </c>
       <c r="C69" s="1">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D69" s="13">
-        <v>43277</v>
+        <v>43278</v>
       </c>
       <c r="E69" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>492</v>
+        <v>575</v>
       </c>
       <c r="G69" t="s">
-        <v>493</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>494</v>
+        <v>576</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>319</v>
+      </c>
+      <c r="W69" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="1:43">
@@ -4908,37 +5118,37 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C70" s="1">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D70" s="13">
         <v>43277</v>
       </c>
       <c r="E70" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="G70" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="Q70" t="s">
-        <v>420</v>
-      </c>
-      <c r="V70" t="s">
-        <v>421</v>
-      </c>
-      <c r="W70" t="s">
-        <v>422</v>
-      </c>
-      <c r="AJ70" t="s">
-        <v>423</v>
+        <v>340</v>
+      </c>
+      <c r="U70" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>580</v>
       </c>
       <c r="AM70" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:43">
@@ -4946,28 +5156,34 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="C71" s="1">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D71" s="13">
-        <v>43277</v>
+        <v>43278</v>
       </c>
       <c r="E71" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>495</v>
+        <v>134</v>
       </c>
       <c r="G71" t="s">
-        <v>246</v>
-      </c>
-      <c r="V71" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>283</v>
+        <v>582</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>339</v>
+      </c>
+      <c r="W71" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>584</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="1:43">
@@ -4975,25 +5191,31 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>570</v>
+        <v>206</v>
       </c>
       <c r="C72" s="1">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D72" s="13">
         <v>43277</v>
       </c>
       <c r="E72" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="G72" t="s">
-        <v>572</v>
-      </c>
-      <c r="V72" t="s">
-        <v>573</v>
+        <v>585</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>586</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>587</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:43">
@@ -5001,34 +5223,25 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="C73" s="1">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D73" s="13">
         <v>43277</v>
       </c>
       <c r="E73" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="G73" t="s">
-        <v>496</v>
+        <v>588</v>
       </c>
       <c r="Q73" t="s">
-        <v>277</v>
-      </c>
-      <c r="W73" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>279</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>280</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74" spans="1:43">
@@ -5036,25 +5249,25 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>590</v>
       </c>
       <c r="C74" s="1">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D74" s="13">
-        <v>43266</v>
+        <v>43277</v>
       </c>
       <c r="E74" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>23</v>
+        <v>591</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>165</v>
+        <v>592</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="75" spans="1:43">
@@ -5062,28 +5275,25 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>497</v>
+        <v>386</v>
       </c>
       <c r="C75" s="1">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D75" s="13">
         <v>43277</v>
       </c>
       <c r="E75" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>498</v>
+        <v>387</v>
       </c>
       <c r="G75" t="s">
-        <v>574</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>499</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>500</v>
+        <v>594</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="76" spans="1:43">
@@ -5091,28 +5301,31 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C76" s="1">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D76" s="13">
         <v>43277</v>
       </c>
       <c r="E76" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G76" t="s">
-        <v>501</v>
+        <v>596</v>
       </c>
       <c r="Q76" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>502</v>
+        <v>251</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="1:43">
@@ -5120,25 +5333,25 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>503</v>
+        <v>14</v>
       </c>
       <c r="C77" s="1">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D77" s="13">
-        <v>43277</v>
+        <v>43263</v>
       </c>
       <c r="E77" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>504</v>
+        <v>155</v>
       </c>
       <c r="G77" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL77" t="s">
-        <v>505</v>
+        <v>19</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:43">
@@ -5146,25 +5359,31 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D78" s="13">
-        <v>43277</v>
+        <v>43278</v>
       </c>
       <c r="E78" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G78" t="s">
-        <v>506</v>
+        <v>599</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>242</v>
+      </c>
+      <c r="V78" t="s">
+        <v>243</v>
       </c>
       <c r="AN78" t="s">
-        <v>274</v>
+        <v>600</v>
       </c>
     </row>
     <row r="79" spans="1:43">
@@ -5172,31 +5391,25 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="C79" s="1">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D79" s="13">
-        <v>43277</v>
+        <v>43263</v>
       </c>
       <c r="E79" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>379</v>
-      </c>
-      <c r="AL79" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ79" t="s">
-        <v>507</v>
+        <v>19</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:43">
@@ -5204,28 +5417,28 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>508</v>
+        <v>235</v>
       </c>
       <c r="C80" s="1">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D80" s="13">
         <v>43277</v>
       </c>
       <c r="E80" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>509</v>
+        <v>601</v>
       </c>
       <c r="G80" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>510</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>543</v>
+        <v>602</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>364</v>
+      </c>
+      <c r="S80" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="1:43">
@@ -5233,25 +5446,31 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="1">
+        <v>87</v>
+      </c>
+      <c r="D81" s="13">
+        <v>43277</v>
+      </c>
+      <c r="E81" s="1">
         <v>13</v>
       </c>
-      <c r="C81" s="1">
-        <v>66</v>
-      </c>
-      <c r="D81" s="13">
-        <v>43263</v>
-      </c>
-      <c r="E81" s="1">
-        <v>16</v>
-      </c>
       <c r="F81" s="15" t="s">
-        <v>24</v>
+        <v>427</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI81" t="s">
-        <v>166</v>
+        <v>603</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>604</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="82" spans="1:43">
@@ -5259,28 +5478,28 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C82" s="1">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D82" s="13">
-        <v>43277</v>
+        <v>43263</v>
       </c>
       <c r="E82" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="G82" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>273</v>
+        <v>20</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>157</v>
       </c>
       <c r="AE82" t="s">
-        <v>512</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:43">
@@ -5291,22 +5510,22 @@
         <v>236</v>
       </c>
       <c r="C83" s="1">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D83" s="13">
         <v>43277</v>
       </c>
       <c r="E83" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>237</v>
+        <v>401</v>
       </c>
       <c r="G83" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>239</v>
+        <v>605</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:43">
@@ -5314,31 +5533,31 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="C84" s="1">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D84" s="13">
-        <v>43278</v>
+        <v>43277</v>
       </c>
       <c r="E84" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>117</v>
+        <v>429</v>
       </c>
       <c r="G84" t="s">
-        <v>544</v>
-      </c>
-      <c r="AK84" t="s">
-        <v>513</v>
-      </c>
-      <c r="AL84" t="s">
-        <v>545</v>
+        <v>606</v>
+      </c>
+      <c r="V84" t="s">
+        <v>607</v>
+      </c>
+      <c r="W84" t="s">
+        <v>608</v>
       </c>
       <c r="AM84" t="s">
-        <v>514</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:43">
@@ -5346,28 +5565,25 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="C85" s="1">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D85" s="13">
-        <v>43278</v>
+        <v>43263</v>
       </c>
       <c r="E85" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="G85" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>355</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>516</v>
+        <v>19</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:43">
@@ -5375,34 +5591,31 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C86" s="1">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D86" s="13">
         <v>43277</v>
       </c>
       <c r="E86" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G86" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="Q86" t="s">
-        <v>546</v>
-      </c>
-      <c r="S86" t="s">
-        <v>577</v>
+        <v>355</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>610</v>
       </c>
       <c r="AL86" t="s">
-        <v>381</v>
-      </c>
-      <c r="AQ86" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:43">
@@ -5410,37 +5623,25 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="C87" s="1">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D87" s="13">
-        <v>43278</v>
+        <v>43273</v>
       </c>
       <c r="E87" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
       <c r="G87" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>352</v>
-      </c>
-      <c r="W87" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD87" t="s">
-        <v>443</v>
-      </c>
-      <c r="AE87" t="s">
-        <v>579</v>
+        <v>19</v>
+      </c>
+      <c r="AN87" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:43">
@@ -5448,34 +5649,25 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="C88" s="1">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D88" s="13">
         <v>43277</v>
       </c>
       <c r="E88" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>195</v>
+        <v>611</v>
       </c>
       <c r="G88" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>373</v>
-      </c>
-      <c r="U88" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>375</v>
-      </c>
-      <c r="AM88" t="s">
-        <v>449</v>
+        <v>194</v>
+      </c>
+      <c r="V88" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:43">
@@ -5483,31 +5675,25 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="C89" s="1">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D89" s="13">
-        <v>43278</v>
+        <v>43277</v>
       </c>
       <c r="E89" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="G89" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>372</v>
-      </c>
-      <c r="AD89" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>447</v>
+        <v>612</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:43">
@@ -5515,28 +5701,34 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C90" s="1">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D90" s="13">
         <v>43277</v>
       </c>
       <c r="E90" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G90" t="s">
-        <v>455</v>
-      </c>
-      <c r="AJ90" t="s">
-        <v>456</v>
+        <v>613</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>614</v>
       </c>
       <c r="AO90" t="s">
-        <v>383</v>
+        <v>352</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:43">
@@ -5544,25 +5736,28 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C91" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D91" s="13">
         <v>43277</v>
       </c>
       <c r="E91" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G91" t="s">
-        <v>293</v>
+        <v>615</v>
       </c>
       <c r="Q91" t="s">
-        <v>294</v>
+        <v>359</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="92" spans="1:43">
@@ -5570,25 +5765,31 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>429</v>
+        <v>233</v>
       </c>
       <c r="C92" s="1">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D92" s="13">
         <v>43277</v>
       </c>
       <c r="E92" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="G92" t="s">
-        <v>532</v>
-      </c>
-      <c r="AK92" t="s">
-        <v>533</v>
+        <v>617</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>618</v>
+      </c>
+      <c r="AO92" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:43">
@@ -5596,25 +5797,28 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="C93" s="1">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D93" s="13">
-        <v>43263</v>
+        <v>43277</v>
       </c>
       <c r="E93" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB93" t="s">
-        <v>424</v>
+        <v>214</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>357</v>
+      </c>
+      <c r="AO93" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:43">
@@ -5622,25 +5826,25 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C94" s="1">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D94" s="13">
-        <v>43263</v>
+        <v>43265.5</v>
       </c>
       <c r="E94" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
       </c>
-      <c r="AM94" t="s">
-        <v>168</v>
+      <c r="L94" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:43">
@@ -5648,28 +5852,28 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="C95" s="1">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D95" s="13">
-        <v>43263</v>
+        <v>43277</v>
       </c>
       <c r="E95" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>198</v>
+        <v>619</v>
       </c>
       <c r="G95" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>425</v>
+        <v>620</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>621</v>
+      </c>
+      <c r="AN95" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:43">
@@ -5677,25 +5881,25 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="C96" s="1">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D96" s="13">
-        <v>43263</v>
+        <v>43265.5</v>
       </c>
       <c r="E96" s="1">
         <v>22</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G96" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA96" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="97" spans="1:46">
@@ -5703,25 +5907,28 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="C97" s="1">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D97" s="13">
-        <v>43273</v>
+        <v>43277</v>
       </c>
       <c r="E97" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN97" t="s">
-        <v>173</v>
+        <v>622</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>623</v>
+      </c>
+      <c r="AO97" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:46">
@@ -5729,25 +5936,28 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="C98" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D98" s="13">
-        <v>43265.5</v>
+        <v>43277</v>
       </c>
       <c r="E98" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>71</v>
+        <v>624</v>
       </c>
       <c r="G98" t="s">
-        <v>19</v>
-      </c>
-      <c r="L98" t="s">
-        <v>28</v>
+        <v>215</v>
+      </c>
+      <c r="AP98" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ98" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:46">
@@ -5755,211 +5965,461 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>625</v>
       </c>
       <c r="C99" s="1">
+        <v>101</v>
+      </c>
+      <c r="D99" s="13">
+        <v>43277</v>
+      </c>
+      <c r="E99" s="1">
+        <v>12</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="G99" t="s">
+        <v>627</v>
+      </c>
+      <c r="AO99" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="100" spans="1:46">
+      <c r="A100" s="17">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="1">
+        <v>102</v>
+      </c>
+      <c r="D100" s="13">
+        <v>43277</v>
+      </c>
+      <c r="E100" s="1">
+        <v>15</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="G100" t="s">
+        <v>630</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO100" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="101" spans="1:46">
+      <c r="A101" s="17">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="1">
+        <v>103</v>
+      </c>
+      <c r="D101" s="13">
+        <v>43278</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="G101" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:46">
+      <c r="A102" s="17">
         <v>99</v>
       </c>
-      <c r="D99" s="13">
-        <v>43265.5</v>
-      </c>
-      <c r="E99" s="1">
-        <v>22</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G99" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="100" spans="1:46">
-      <c r="A100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="1:46">
-      <c r="A101" s="3" t="s">
+      <c r="B102" t="s">
+        <v>632</v>
+      </c>
+      <c r="C102" s="1">
+        <v>104</v>
+      </c>
+      <c r="D102" s="13">
+        <v>43277</v>
+      </c>
+      <c r="E102" s="1">
+        <v>7</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="G102" t="s">
+        <v>634</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="103" spans="1:46">
+      <c r="A103" s="17">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>636</v>
+      </c>
+      <c r="C103" s="1">
+        <v>107</v>
+      </c>
+      <c r="D103" s="13">
+        <v>43277</v>
+      </c>
+      <c r="E103" s="1">
+        <v>14</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="G103" t="s">
+        <v>638</v>
+      </c>
+      <c r="AQ103" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="104" spans="1:46">
+      <c r="A104" s="17">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>403</v>
+      </c>
+      <c r="C104" s="1">
+        <v>108</v>
+      </c>
+      <c r="D104" s="13">
+        <v>43277</v>
+      </c>
+      <c r="E104" s="1">
+        <v>19</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="G104" t="s">
+        <v>640</v>
+      </c>
+      <c r="AP104" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="105" spans="1:46">
+      <c r="A105" s="17">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>405</v>
+      </c>
+      <c r="C105" s="1">
+        <v>110</v>
+      </c>
+      <c r="D105" s="13">
+        <v>43277</v>
+      </c>
+      <c r="E105" s="1">
+        <v>19</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="G105" t="s">
+        <v>642</v>
+      </c>
+      <c r="W105" t="s">
+        <v>643</v>
+      </c>
+      <c r="X105" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:46">
+      <c r="A106" s="17">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>268</v>
+      </c>
+      <c r="C106" s="1">
+        <v>111</v>
+      </c>
+      <c r="D106" s="13">
+        <v>43277</v>
+      </c>
+      <c r="E106" s="1">
+        <v>11</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G106" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46">
+      <c r="A107" s="17">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
+        <v>96</v>
+      </c>
+      <c r="C107" s="1">
+        <v>112</v>
+      </c>
+      <c r="D107" s="13">
+        <v>43277.75</v>
+      </c>
+      <c r="E107" s="1">
+        <v>54</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G107" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>274</v>
+      </c>
+      <c r="R107" t="s">
+        <v>275</v>
+      </c>
+      <c r="S107" t="s">
+        <v>276</v>
+      </c>
+      <c r="T107" t="s">
+        <v>277</v>
+      </c>
+      <c r="V107" t="s">
+        <v>278</v>
+      </c>
+      <c r="W107" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46">
+      <c r="A108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="1:46">
+      <c r="A109" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B109" t="s">
         <v>29</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E109" t="s">
         <v>29</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G109" t="s">
         <v>29</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H109" t="s">
         <v>74</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I109" t="s">
         <v>75</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J109" t="s">
         <v>74</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K109" t="s">
         <v>74</v>
       </c>
-      <c r="L101" t="s">
-        <v>581</v>
-      </c>
-      <c r="M101" t="s">
-        <v>75</v>
-      </c>
-      <c r="N101" t="s">
+      <c r="L109" t="s">
+        <v>439</v>
+      </c>
+      <c r="M109" t="s">
+        <v>439</v>
+      </c>
+      <c r="N109" t="s">
         <v>76</v>
       </c>
-      <c r="O101" t="s">
+      <c r="O109" t="s">
         <v>74</v>
       </c>
-      <c r="P101" t="s">
+      <c r="P109" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>441</v>
+      </c>
+      <c r="R109" t="s">
+        <v>74</v>
+      </c>
+      <c r="S109" t="s">
+        <v>442</v>
+      </c>
+      <c r="T109" t="s">
+        <v>443</v>
+      </c>
+      <c r="U109" t="s">
+        <v>444</v>
+      </c>
+      <c r="V109" t="s">
+        <v>445</v>
+      </c>
+      <c r="W109" t="s">
+        <v>446</v>
+      </c>
+      <c r="X109" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z109" t="s">
         <v>77</v>
       </c>
-      <c r="Q101" t="s">
-        <v>199</v>
-      </c>
-      <c r="R101" t="s">
-        <v>74</v>
-      </c>
-      <c r="S101" t="s">
-        <v>582</v>
-      </c>
-      <c r="T101" t="s">
-        <v>583</v>
-      </c>
-      <c r="U101" t="s">
-        <v>517</v>
-      </c>
-      <c r="V101" t="s">
-        <v>584</v>
-      </c>
-      <c r="W101" t="s">
-        <v>200</v>
-      </c>
-      <c r="X101" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA101" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB101" t="s">
-        <v>527</v>
-      </c>
-      <c r="AC101" t="s">
-        <v>528</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>585</v>
-      </c>
-      <c r="AF101" t="s">
-        <v>518</v>
-      </c>
-      <c r="AG101" t="s">
-        <v>519</v>
-      </c>
-      <c r="AH101" t="s">
-        <v>520</v>
-      </c>
-      <c r="AI101" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ101" t="s">
-        <v>521</v>
-      </c>
-      <c r="AK101" t="s">
-        <v>530</v>
-      </c>
-      <c r="AL101" t="s">
-        <v>518</v>
-      </c>
-      <c r="AM101" t="s">
-        <v>531</v>
-      </c>
-      <c r="AN101" t="s">
-        <v>522</v>
-      </c>
-      <c r="AO101" t="s">
-        <v>523</v>
-      </c>
-      <c r="AP101" t="s">
-        <v>524</v>
-      </c>
-      <c r="AQ101" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="102" spans="1:46">
-      <c r="A102" s="10"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11"/>
-      <c r="U102" s="11"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="11"/>
-      <c r="X102" s="11"/>
-      <c r="Y102" s="11"/>
-      <c r="Z102" s="11"/>
-      <c r="AA102" s="11"/>
-      <c r="AB102" s="11"/>
-      <c r="AC102" s="11"/>
-      <c r="AD102" s="11"/>
-      <c r="AE102" s="11"/>
-      <c r="AF102" s="11"/>
-      <c r="AG102" s="11"/>
-      <c r="AH102" s="11"/>
-      <c r="AI102" s="11"/>
-      <c r="AJ102" s="11"/>
-      <c r="AK102" s="11"/>
-      <c r="AL102" s="11"/>
-      <c r="AM102" s="11"/>
-      <c r="AN102" s="11"/>
-      <c r="AO102" s="11"/>
-      <c r="AP102" s="11"/>
-      <c r="AQ102" s="11"/>
-      <c r="AR102" s="11"/>
-      <c r="AS102" s="11"/>
-      <c r="AT102" s="11"/>
+      <c r="AA109" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>452</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>453</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK109" t="s">
+        <v>455</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>452</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>456</v>
+      </c>
+      <c r="AN109" t="s">
+        <v>457</v>
+      </c>
+      <c r="AO109" t="s">
+        <v>458</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>459</v>
+      </c>
+      <c r="AQ109" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="110" spans="1:46">
+      <c r="A110" s="10"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="11"/>
+      <c r="U110" s="11"/>
+      <c r="V110" s="11"/>
+      <c r="W110" s="11"/>
+      <c r="X110" s="11"/>
+      <c r="Y110" s="11"/>
+      <c r="Z110" s="11"/>
+      <c r="AA110" s="11"/>
+      <c r="AB110" s="11"/>
+      <c r="AC110" s="11"/>
+      <c r="AD110" s="11"/>
+      <c r="AE110" s="11"/>
+      <c r="AF110" s="11"/>
+      <c r="AG110" s="11"/>
+      <c r="AH110" s="11"/>
+      <c r="AI110" s="11"/>
+      <c r="AJ110" s="11"/>
+      <c r="AK110" s="11"/>
+      <c r="AL110" s="11"/>
+      <c r="AM110" s="11"/>
+      <c r="AN110" s="11"/>
+      <c r="AO110" s="11"/>
+      <c r="AP110" s="11"/>
+      <c r="AQ110" s="11"/>
+      <c r="AR110" s="11"/>
+      <c r="AS110" s="11"/>
+      <c r="AT110" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ОтчетПоЗагруженности release.xlsx
+++ b/ОтчетПоЗагруженности release.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="305">
   <si>
     <t>Приоритет</t>
   </si>
@@ -341,9 +341,6 @@
     <t xml:space="preserve"> (1/1/16) (Free= 15)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (4/4/46) (Free= 42)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (2/2/28) (Free= 26)</t>
   </si>
   <si>
@@ -848,21 +845,9 @@
     <t>18.965/27</t>
   </si>
   <si>
-    <t>7.841/14</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013949 (11/27)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000013949 (3/60)</t>
   </si>
   <si>
-    <t>РЕЛ-000013991 (8/16)*</t>
-  </si>
-  <si>
-    <t>0.232/2</t>
-  </si>
-  <si>
     <t>РЕЛ-000014322 - Самовывоз на следующий день с 9:00 до 14:00</t>
   </si>
   <si>
@@ -884,9 +869,6 @@
     <t>6.039/21</t>
   </si>
   <si>
-    <t>0.006/1</t>
-  </si>
-  <si>
     <t>РЕЛ-000014067 (1/199)</t>
   </si>
   <si>
@@ -911,9 +893,6 @@
     <t xml:space="preserve"> (10/10/28) (Free= 18)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (11/11/27) (Free= 16)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (4/4/60) (Free= 56)</t>
   </si>
   <si>
@@ -932,19 +911,46 @@
     <t>4.543/12</t>
   </si>
   <si>
-    <t>21.426/22</t>
-  </si>
-  <si>
-    <t>РЕЛ-000013895 (8/16)</t>
-  </si>
-  <si>
-    <t>4.583/38</t>
-  </si>
-  <si>
-    <t>9.246/10</t>
-  </si>
-  <si>
-    <t>1.824/19</t>
+    <t xml:space="preserve"> (5/5/46) (Free= 41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (12/12/27) (Free= 15)</t>
+  </si>
+  <si>
+    <t>23.059/24</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013895 (1/16)</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013895 (9/16)</t>
+  </si>
+  <si>
+    <t>7.888/15</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013949 (12/27)*</t>
+  </si>
+  <si>
+    <t>9.015/9</t>
+  </si>
+  <si>
+    <t>РЕЛ-000013991 (7/16)*</t>
+  </si>
+  <si>
+    <t>0.232/4</t>
+  </si>
+  <si>
+    <t>1.893/19</t>
+  </si>
+  <si>
+    <t>0.027/2</t>
+  </si>
+  <si>
+    <t>РЕЛ-000014067 (1/46)*</t>
+  </si>
+  <si>
+    <t>4.696/38</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="4">
-        <v>43280.563520138887</v>
+        <v>43280.56682670139</v>
       </c>
     </row>
     <row r="2" spans="1:54" ht="18.75">
@@ -2010,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -2022,19 +2028,19 @@
         <v>2</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q4" t="s">
         <v>139</v>
       </c>
-      <c r="G4" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="AG4" t="s">
         <v>140</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>141</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:54">
@@ -2054,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -2083,7 +2089,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -2109,7 +2115,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -2123,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2135,19 +2141,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" t="s">
         <v>147</v>
       </c>
-      <c r="G8" t="s">
+      <c r="AO8" t="s">
         <v>148</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>149</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>150</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:54">
@@ -2167,10 +2173,10 @@
         <v>830</v>
       </c>
       <c r="F9" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" t="s">
         <v>236</v>
-      </c>
-      <c r="G9" t="s">
-        <v>237</v>
       </c>
       <c r="Q9" t="s">
         <v>90</v>
@@ -2182,19 +2188,19 @@
         <v>92</v>
       </c>
       <c r="AB9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO9" t="s">
         <v>152</v>
       </c>
-      <c r="AD9" t="s">
-        <v>238</v>
-      </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>153</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:54">
@@ -2266,7 +2272,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -2280,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -2292,22 +2298,22 @@
         <v>26</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G13" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H13" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I13" t="s">
+        <v>256</v>
+      </c>
+      <c r="J13" t="s">
         <v>257</v>
       </c>
-      <c r="J13" t="s">
-        <v>258</v>
-      </c>
       <c r="M13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:54">
@@ -2315,7 +2321,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -2327,19 +2333,19 @@
         <v>15</v>
       </c>
       <c r="F14" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" t="s">
+        <v>258</v>
+      </c>
+      <c r="I14" t="s">
         <v>228</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>259</v>
       </c>
-      <c r="I14" t="s">
-        <v>229</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>260</v>
-      </c>
-      <c r="K14" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:54">
@@ -2347,7 +2353,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2359,25 +2365,25 @@
         <v>10</v>
       </c>
       <c r="F15" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
         <v>156</v>
       </c>
-      <c r="G15" t="s">
+      <c r="Q15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y15" t="s">
         <v>157</v>
       </c>
-      <c r="Q15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y15" t="s">
+      <c r="AA15" t="s">
         <v>158</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>159</v>
       </c>
       <c r="AE15" t="s">
         <v>95</v>
       </c>
       <c r="AI15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:54">
@@ -2397,13 +2403,13 @@
         <v>14</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
       </c>
       <c r="S16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2411,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -2423,22 +2429,22 @@
         <v>11</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G17" t="s">
+        <v>261</v>
+      </c>
+      <c r="T17" t="s">
         <v>262</v>
       </c>
-      <c r="T17" t="s">
-        <v>263</v>
-      </c>
       <c r="AB17" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI17" t="s">
         <v>241</v>
       </c>
-      <c r="AI17" t="s">
-        <v>242</v>
-      </c>
       <c r="AN17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2446,7 +2452,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -2458,13 +2464,13 @@
         <v>2</v>
       </c>
       <c r="F18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO18" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -2472,7 +2478,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -2484,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN19" t="s">
         <v>118</v>
-      </c>
-      <c r="G19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -2498,7 +2504,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -2510,16 +2516,19 @@
         <v>11</v>
       </c>
       <c r="F20" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" t="s">
+        <v>293</v>
+      </c>
+      <c r="H20" t="s">
+        <v>294</v>
+      </c>
+      <c r="O20" t="s">
+        <v>295</v>
+      </c>
+      <c r="P20" t="s">
         <v>265</v>
-      </c>
-      <c r="G20" t="s">
-        <v>298</v>
-      </c>
-      <c r="O20" t="s">
-        <v>299</v>
-      </c>
-      <c r="P20" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -2527,7 +2536,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -2539,13 +2548,13 @@
         <v>14</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G21" t="s">
+        <v>266</v>
+      </c>
+      <c r="N21" t="s">
         <v>267</v>
-      </c>
-      <c r="N21" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -2553,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -2565,13 +2574,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" t="s">
         <v>120</v>
       </c>
-      <c r="G22" t="s">
+      <c r="Q22" t="s">
         <v>121</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -2579,7 +2588,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -2591,16 +2600,16 @@
         <v>19</v>
       </c>
       <c r="F23" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM23" t="s">
         <v>269</v>
-      </c>
-      <c r="G23" t="s">
-        <v>270</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>271</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -2608,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -2620,13 +2629,13 @@
         <v>8</v>
       </c>
       <c r="F24" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="S24" t="s">
         <v>166</v>
-      </c>
-      <c r="G24" t="s">
-        <v>110</v>
-      </c>
-      <c r="S24" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -2634,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -2646,13 +2655,13 @@
         <v>17</v>
       </c>
       <c r="F25" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" t="s">
         <v>169</v>
       </c>
-      <c r="G25" t="s">
+      <c r="AG25" t="s">
         <v>170</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -2660,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -2672,16 +2681,16 @@
         <v>8</v>
       </c>
       <c r="F26" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
+        <v>298</v>
+      </c>
+      <c r="K26" t="s">
         <v>225</v>
       </c>
-      <c r="G26" t="s">
-        <v>301</v>
-      </c>
-      <c r="K26" t="s">
-        <v>226</v>
-      </c>
       <c r="L26" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -2689,7 +2698,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -2701,13 +2710,13 @@
         <v>1</v>
       </c>
       <c r="F27" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" t="s">
         <v>176</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>177</v>
-      </c>
-      <c r="I27" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -2715,7 +2724,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -2727,13 +2736,13 @@
         <v>5</v>
       </c>
       <c r="F28" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q28" t="s">
         <v>124</v>
-      </c>
-      <c r="G28" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -2741,7 +2750,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -2753,13 +2762,13 @@
         <v>11</v>
       </c>
       <c r="F29" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" t="s">
         <v>181</v>
       </c>
-      <c r="G29" t="s">
+      <c r="Q29" t="s">
         <v>182</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -2767,7 +2776,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -2779,16 +2788,16 @@
         <v>4</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO30" t="s">
         <v>185</v>
       </c>
-      <c r="AO30" t="s">
+      <c r="AQ30" t="s">
         <v>186</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -2796,7 +2805,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -2808,16 +2817,16 @@
         <v>9</v>
       </c>
       <c r="F31" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" t="s">
         <v>189</v>
       </c>
-      <c r="G31" t="s">
+      <c r="AO31" t="s">
         <v>190</v>
       </c>
-      <c r="AO31" t="s">
+      <c r="AP31" t="s">
         <v>191</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -2825,7 +2834,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -2837,13 +2846,13 @@
         <v>1</v>
       </c>
       <c r="F32" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" t="s">
         <v>194</v>
       </c>
-      <c r="G32" t="s">
+      <c r="W32" t="s">
         <v>195</v>
-      </c>
-      <c r="W32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -2851,7 +2860,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -2863,19 +2872,19 @@
         <v>2</v>
       </c>
       <c r="F33" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q33" t="s">
         <v>198</v>
       </c>
-      <c r="G33" t="s">
+      <c r="T33" t="s">
         <v>245</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="AI33" t="s">
         <v>199</v>
-      </c>
-      <c r="T33" t="s">
-        <v>246</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -2883,7 +2892,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -2895,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="F34" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ34" t="s">
         <v>219</v>
-      </c>
-      <c r="G34" t="s">
-        <v>247</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -2909,7 +2918,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -2921,16 +2930,16 @@
         <v>1</v>
       </c>
       <c r="F35" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" t="s">
         <v>201</v>
       </c>
-      <c r="G35" t="s">
+      <c r="Q35" t="s">
         <v>202</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="W35" t="s">
         <v>203</v>
-      </c>
-      <c r="W35" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -2938,7 +2947,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -2950,22 +2959,22 @@
         <v>6</v>
       </c>
       <c r="F36" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO36" t="s">
         <v>222</v>
       </c>
-      <c r="G36" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>250</v>
-      </c>
-      <c r="AK36" t="s">
+      <c r="AP36" t="s">
         <v>251</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>223</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:43">
@@ -2973,7 +2982,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -2985,13 +2994,13 @@
         <v>1</v>
       </c>
       <c r="F37" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ37" t="s">
         <v>206</v>
-      </c>
-      <c r="G37" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -2999,7 +3008,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -3011,16 +3020,16 @@
         <v>3</v>
       </c>
       <c r="F38" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" t="s">
         <v>108</v>
       </c>
-      <c r="G38" t="s">
-        <v>109</v>
-      </c>
       <c r="W38" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="X38" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -3028,7 +3037,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -3040,13 +3049,13 @@
         <v>2</v>
       </c>
       <c r="F39" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" t="s">
         <v>209</v>
       </c>
-      <c r="G39" t="s">
+      <c r="V39" t="s">
         <v>210</v>
-      </c>
-      <c r="V39" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:43">
@@ -3054,7 +3063,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
@@ -3066,13 +3075,13 @@
         <v>19</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q40" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:43">
@@ -3080,7 +3089,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
@@ -3092,13 +3101,16 @@
         <v>21</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G41" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="Q41" t="s">
-        <v>283</v>
+        <v>277</v>
+      </c>
+      <c r="V41" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:43">
@@ -3106,7 +3118,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C42" s="1">
         <v>7</v>
@@ -3118,16 +3130,16 @@
         <v>40</v>
       </c>
       <c r="F42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI42" t="s">
         <v>172</v>
       </c>
-      <c r="G42" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI42" t="s">
+      <c r="AJ42" t="s">
         <v>173</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:43">
@@ -3199,7 +3211,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G45" t="s">
         <v>18</v>
@@ -3251,7 +3263,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3280,7 +3292,7 @@
         <v>22</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G48" t="s">
         <v>18</v>
@@ -3306,7 +3318,7 @@
         <v>18</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G49" t="s">
         <v>18</v>
@@ -3320,7 +3332,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C50" s="1">
         <v>97</v>
@@ -3332,13 +3344,13 @@
         <v>13</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G50" t="s">
         <v>18</v>
       </c>
       <c r="AG50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:46">
@@ -3358,7 +3370,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G51" t="s">
         <v>18</v>
@@ -3384,7 +3396,7 @@
         <v>22</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G52" t="s">
         <v>84</v>
@@ -3422,7 +3434,7 @@
         <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I54" t="s">
         <v>68</v>
@@ -3440,94 +3452,94 @@
         <v>100</v>
       </c>
       <c r="N54" t="s">
+        <v>279</v>
+      </c>
+      <c r="O54" t="s">
+        <v>125</v>
+      </c>
+      <c r="P54" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>281</v>
+      </c>
+      <c r="R54" t="s">
+        <v>127</v>
+      </c>
+      <c r="S54" t="s">
+        <v>229</v>
+      </c>
+      <c r="T54" t="s">
+        <v>282</v>
+      </c>
+      <c r="U54" t="s">
+        <v>127</v>
+      </c>
+      <c r="V54" t="s">
+        <v>291</v>
+      </c>
+      <c r="W54" t="s">
+        <v>102</v>
+      </c>
+      <c r="X54" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM54" t="s">
         <v>285</v>
       </c>
-      <c r="O54" t="s">
-        <v>127</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="AN54" t="s">
         <v>286</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="AO54" t="s">
         <v>287</v>
       </c>
-      <c r="R54" t="s">
-        <v>128</v>
-      </c>
-      <c r="S54" t="s">
-        <v>230</v>
-      </c>
-      <c r="T54" t="s">
-        <v>288</v>
-      </c>
-      <c r="U54" t="s">
-        <v>128</v>
-      </c>
-      <c r="V54" t="s">
-        <v>101</v>
-      </c>
-      <c r="W54" t="s">
-        <v>103</v>
-      </c>
-      <c r="X54" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH54" t="s">
+      <c r="AP54" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ54" t="s">
         <v>233</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>290</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>291</v>
-      </c>
-      <c r="AM54" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO54" t="s">
-        <v>294</v>
-      </c>
-      <c r="AP54" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ54" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:46">

--- a/ОтчетПоЗагруженности release.xlsx
+++ b/ОтчетПоЗагруженности release.xlsx
@@ -1529,10 +1529,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1560,7 +1560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1570,61 +1569,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1676,10 +1633,53 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
@@ -1839,7 +1839,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица__10.50.0.50_LEAD_1" displayName="Таблица__10.50.0.50_LEAD_1" ref="D1" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Столбец1" queryTableFieldId="1" headerRowDxfId="13" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="Столбец1" queryTableFieldId="1" headerRowDxfId="13" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1849,12 +1849,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица__10.50.0.50_LEAD" displayName="Таблица__10.50.0.50_LEAD" ref="A3:AQ98" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A3:AQ98"/>
   <tableColumns count="43">
-    <tableColumn id="1" uniqueName="1" name="№ п/п" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" uniqueName="1" name="№ п/п" queryTableFieldId="1" dataDxfId="11"/>
     <tableColumn id="2" uniqueName="2" name="ПЛ+Направление" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Приоритет" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Дата и время отъезда" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Приоритет" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" uniqueName="4" name="Дата и время отъезда" queryTableFieldId="4" dataDxfId="9"/>
     <tableColumn id="5" uniqueName="5" name="Заявок" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="План м3/ячеек" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="6" uniqueName="6" name="План м3/ячеек" queryTableFieldId="6" dataDxfId="8"/>
     <tableColumn id="7" uniqueName="7" name="Занято м3/ячеек" queryTableFieldId="7"/>
     <tableColumn id="8" uniqueName="8" name="OUT7 (Сегмент 3)" queryTableFieldId="8"/>
     <tableColumn id="9" uniqueName="9" name="OUT8 (Сегмент 3)" queryTableFieldId="9"/>
@@ -1900,12 +1900,12 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица__10.50.0.50_LEAD_2" displayName="Таблица__10.50.0.50_LEAD_2" ref="A100:AQ100" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="43">
-    <tableColumn id="1" uniqueName="1" name="№ п/п" queryTableFieldId="1" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="1" uniqueName="1" name="№ п/п" queryTableFieldId="1" headerRowDxfId="7" dataDxfId="6"/>
     <tableColumn id="2" uniqueName="2" name="ПЛ+Направление" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Приоритет" queryTableFieldId="3" headerRowDxfId="10" dataDxfId="7"/>
-    <tableColumn id="4" uniqueName="4" name="Дата и время отъезда" queryTableFieldId="4" headerRowDxfId="11" dataDxfId="6"/>
+    <tableColumn id="3" uniqueName="3" name="Приоритет" queryTableFieldId="3" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="4" uniqueName="4" name="Дата и время отъезда" queryTableFieldId="4" headerRowDxfId="3" dataDxfId="2"/>
     <tableColumn id="5" uniqueName="5" name="Заявок" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="План м3/ячеек" queryTableFieldId="6" headerRowDxfId="12" dataDxfId="5"/>
+    <tableColumn id="6" uniqueName="6" name="План м3/ячеек" queryTableFieldId="6" headerRowDxfId="1" dataDxfId="0"/>
     <tableColumn id="7" uniqueName="7" name="Занято м3/ячеек" queryTableFieldId="7"/>
     <tableColumn id="8" uniqueName="8" name="OUT7 (Сегмент 3)" queryTableFieldId="8"/>
     <tableColumn id="9" uniqueName="9" name="OUT8 (Сегмент 3)" queryTableFieldId="9"/>
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T108" sqref="T108"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AT26" sqref="AT26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2327,11 +2327,11 @@
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="12"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="10"/>
       <c r="AV2" s="10"/>
       <c r="AW2" s="10"/>
       <c r="AX2" s="10"/>
@@ -2481,7 +2481,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>43300.25</v>
       </c>
       <c r="E4">
@@ -2498,7 +2498,7 @@
       </c>
     </row>
     <row r="5" spans="1:54">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>42</v>
       </c>
       <c r="B5" t="s">
@@ -2507,7 +2507,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>43299</v>
       </c>
       <c r="E5">
@@ -2524,7 +2524,7 @@
       </c>
     </row>
     <row r="6" spans="1:54">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2533,7 +2533,7 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>43298.678472222222</v>
       </c>
       <c r="E6">
@@ -2550,7 +2550,7 @@
       </c>
     </row>
     <row r="7" spans="1:54">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>63</v>
       </c>
       <c r="B7" t="s">
@@ -2559,7 +2559,7 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>43298</v>
       </c>
       <c r="E7">
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="8" spans="1:54">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>74</v>
       </c>
       <c r="B8" t="s">
@@ -2588,7 +2588,7 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>43297.75</v>
       </c>
       <c r="E8">
@@ -2605,7 +2605,7 @@
       </c>
     </row>
     <row r="9" spans="1:54">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>64</v>
       </c>
       <c r="B9" t="s">
@@ -2614,7 +2614,7 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>43297.25</v>
       </c>
       <c r="E9">
@@ -2631,7 +2631,7 @@
       </c>
     </row>
     <row r="10" spans="1:54">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>61</v>
       </c>
       <c r="B10" t="s">
@@ -2640,7 +2640,7 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>43297.208333333336</v>
       </c>
       <c r="E10">
@@ -2660,7 +2660,7 @@
       </c>
     </row>
     <row r="11" spans="1:54">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>32</v>
       </c>
       <c r="B11" t="s">
@@ -2669,7 +2669,7 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>43297</v>
       </c>
       <c r="E11">
@@ -2686,7 +2686,7 @@
       </c>
     </row>
     <row r="12" spans="1:54">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>48</v>
       </c>
       <c r="B12" t="s">
@@ -2695,7 +2695,7 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>43296.979166666664</v>
       </c>
       <c r="E12">
@@ -2715,7 +2715,7 @@
       </c>
     </row>
     <row r="13" spans="1:54">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>40</v>
       </c>
       <c r="B13" t="s">
@@ -2724,7 +2724,7 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>43296.666666666664</v>
       </c>
       <c r="E13">
@@ -2741,7 +2741,7 @@
       </c>
     </row>
     <row r="14" spans="1:54">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>30</v>
       </c>
       <c r="B14" t="s">
@@ -2750,7 +2750,7 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>43295.791666666664</v>
       </c>
       <c r="E14">
@@ -2779,7 +2779,7 @@
       </c>
     </row>
     <row r="15" spans="1:54">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>28</v>
       </c>
       <c r="B15" t="s">
@@ -2788,7 +2788,7 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>43295.75</v>
       </c>
       <c r="E15">
@@ -2820,7 +2820,7 @@
       </c>
     </row>
     <row r="16" spans="1:54">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>37</v>
       </c>
       <c r="B16" t="s">
@@ -2829,7 +2829,7 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>43295.625</v>
       </c>
       <c r="E16">
@@ -2858,7 +2858,7 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>41</v>
       </c>
       <c r="B17" t="s">
@@ -2867,7 +2867,7 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>43295.5</v>
       </c>
       <c r="E17">
@@ -2893,7 +2893,7 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>45</v>
       </c>
       <c r="B18" t="s">
@@ -2902,7 +2902,7 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>43295.375</v>
       </c>
       <c r="E18">
@@ -2925,7 +2925,7 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>46</v>
       </c>
       <c r="B19" t="s">
@@ -2934,7 +2934,7 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>43295.25</v>
       </c>
       <c r="E19">
@@ -2960,7 +2960,7 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>51</v>
       </c>
       <c r="B20" t="s">
@@ -2969,7 +2969,7 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>43295</v>
       </c>
       <c r="E20">
@@ -2986,7 +2986,7 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>65</v>
       </c>
       <c r="B21" t="s">
@@ -2995,7 +2995,7 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>43295</v>
       </c>
       <c r="E21">
@@ -3012,7 +3012,7 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>75</v>
       </c>
       <c r="B22" t="s">
@@ -3021,7 +3021,7 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>43295</v>
       </c>
       <c r="E22">
@@ -3038,7 +3038,7 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>76</v>
       </c>
       <c r="B23" t="s">
@@ -3047,7 +3047,7 @@
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>43295</v>
       </c>
       <c r="E23">
@@ -3064,7 +3064,7 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>39</v>
       </c>
       <c r="B24" t="s">
@@ -3073,7 +3073,7 @@
       <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>43294.666666666664</v>
       </c>
       <c r="E24">
@@ -3090,7 +3090,7 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>53</v>
       </c>
       <c r="B25" t="s">
@@ -3099,7 +3099,7 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>43294.583333333336</v>
       </c>
       <c r="E25">
@@ -3128,7 +3128,7 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>58</v>
       </c>
       <c r="B26" t="s">
@@ -3137,7 +3137,7 @@
       <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>43294.583333333336</v>
       </c>
       <c r="E26">
@@ -3157,7 +3157,7 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>34</v>
       </c>
       <c r="B27" t="s">
@@ -3166,7 +3166,7 @@
       <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>43294.291666666664</v>
       </c>
       <c r="E27">
@@ -3183,7 +3183,7 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>6</v>
       </c>
       <c r="B28" t="s">
@@ -3192,7 +3192,7 @@
       <c r="C28" s="1">
         <v>0</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>43294.25</v>
       </c>
       <c r="E28">
@@ -3209,7 +3209,7 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>7</v>
       </c>
       <c r="B29" t="s">
@@ -3218,7 +3218,7 @@
       <c r="C29" s="1">
         <v>0</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>43294.25</v>
       </c>
       <c r="E29">
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>62</v>
       </c>
       <c r="B30" t="s">
@@ -3244,7 +3244,7 @@
       <c r="C30" s="1">
         <v>0</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>43294.25</v>
       </c>
       <c r="E30">
@@ -3261,7 +3261,7 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>35</v>
       </c>
       <c r="B31" t="s">
@@ -3270,7 +3270,7 @@
       <c r="C31" s="1">
         <v>0</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>43294.229166666664</v>
       </c>
       <c r="E31">
@@ -3287,7 +3287,7 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <v>36</v>
       </c>
       <c r="B32" t="s">
@@ -3296,7 +3296,7 @@
       <c r="C32" s="1">
         <v>0</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>43294.229166666664</v>
       </c>
       <c r="E32">
@@ -3313,7 +3313,7 @@
       </c>
     </row>
     <row r="33" spans="1:42">
-      <c r="A33" s="14">
+      <c r="A33" s="13">
         <v>33</v>
       </c>
       <c r="B33" t="s">
@@ -3322,7 +3322,7 @@
       <c r="C33" s="1">
         <v>0</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>43294.208333333336</v>
       </c>
       <c r="E33">
@@ -3345,7 +3345,7 @@
       </c>
     </row>
     <row r="34" spans="1:42">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>56</v>
       </c>
       <c r="B34" t="s">
@@ -3354,7 +3354,7 @@
       <c r="C34" s="1">
         <v>0</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <v>43294.208333333336</v>
       </c>
       <c r="E34">
@@ -3371,7 +3371,7 @@
       </c>
     </row>
     <row r="35" spans="1:42">
-      <c r="A35" s="14">
+      <c r="A35" s="13">
         <v>57</v>
       </c>
       <c r="B35" t="s">
@@ -3380,7 +3380,7 @@
       <c r="C35" s="1">
         <v>0</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <v>43294.208333333336</v>
       </c>
       <c r="E35">
@@ -3397,7 +3397,7 @@
       </c>
     </row>
     <row r="36" spans="1:42">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <v>59</v>
       </c>
       <c r="B36" t="s">
@@ -3406,7 +3406,7 @@
       <c r="C36" s="1">
         <v>0</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <v>43294.208333333336</v>
       </c>
       <c r="E36">
@@ -3423,7 +3423,7 @@
       </c>
     </row>
     <row r="37" spans="1:42">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>60</v>
       </c>
       <c r="B37" t="s">
@@ -3432,7 +3432,7 @@
       <c r="C37" s="1">
         <v>0</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <v>43294.208333333336</v>
       </c>
       <c r="E37">
@@ -3449,7 +3449,7 @@
       </c>
     </row>
     <row r="38" spans="1:42">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>69</v>
       </c>
       <c r="B38" t="s">
@@ -3458,7 +3458,7 @@
       <c r="C38" s="1">
         <v>0</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <v>43294.208333333336</v>
       </c>
       <c r="E38">
@@ -3478,7 +3478,7 @@
       </c>
     </row>
     <row r="39" spans="1:42">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>70</v>
       </c>
       <c r="B39" t="s">
@@ -3487,7 +3487,7 @@
       <c r="C39" s="1">
         <v>0</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>43294.1875</v>
       </c>
       <c r="E39">
@@ -3504,7 +3504,7 @@
       </c>
     </row>
     <row r="40" spans="1:42">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>4</v>
       </c>
       <c r="B40" t="s">
@@ -3513,7 +3513,7 @@
       <c r="C40" s="1">
         <v>0</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <v>43294.166666666664</v>
       </c>
       <c r="E40">
@@ -3530,7 +3530,7 @@
       </c>
     </row>
     <row r="41" spans="1:42">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>54</v>
       </c>
       <c r="B41" t="s">
@@ -3539,7 +3539,7 @@
       <c r="C41" s="1">
         <v>0</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>43294.145833333336</v>
       </c>
       <c r="E41">
@@ -3556,7 +3556,7 @@
       </c>
     </row>
     <row r="42" spans="1:42">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>3</v>
       </c>
       <c r="B42" t="s">
@@ -3565,7 +3565,7 @@
       <c r="C42" s="1">
         <v>0</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>43294.125</v>
       </c>
       <c r="E42">
@@ -3582,7 +3582,7 @@
       </c>
     </row>
     <row r="43" spans="1:42">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <v>44</v>
       </c>
       <c r="B43" t="s">
@@ -3591,7 +3591,7 @@
       <c r="C43" s="1">
         <v>0</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <v>43294.125</v>
       </c>
       <c r="E43">
@@ -3608,7 +3608,7 @@
       </c>
     </row>
     <row r="44" spans="1:42">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>50</v>
       </c>
       <c r="B44" t="s">
@@ -3617,7 +3617,7 @@
       <c r="C44" s="1">
         <v>0</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <v>43294.125</v>
       </c>
       <c r="E44">
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="45" spans="1:42">
-      <c r="A45" s="14">
+      <c r="A45" s="13">
         <v>55</v>
       </c>
       <c r="B45" t="s">
@@ -3643,7 +3643,7 @@
       <c r="C45" s="1">
         <v>0</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <v>43294.125</v>
       </c>
       <c r="E45">
@@ -3660,7 +3660,7 @@
       </c>
     </row>
     <row r="46" spans="1:42">
-      <c r="A46" s="14">
+      <c r="A46" s="13">
         <v>68</v>
       </c>
       <c r="B46" t="s">
@@ -3669,7 +3669,7 @@
       <c r="C46" s="1">
         <v>0</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <v>43294.125</v>
       </c>
       <c r="E46">
@@ -3686,7 +3686,7 @@
       </c>
     </row>
     <row r="47" spans="1:42">
-      <c r="A47" s="14">
+      <c r="A47" s="13">
         <v>43</v>
       </c>
       <c r="B47" t="s">
@@ -3695,7 +3695,7 @@
       <c r="C47" s="1">
         <v>0</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="12">
         <v>43294.104166666664</v>
       </c>
       <c r="E47">
@@ -3712,7 +3712,7 @@
       </c>
     </row>
     <row r="48" spans="1:42">
-      <c r="A48" s="14">
+      <c r="A48" s="13">
         <v>49</v>
       </c>
       <c r="B48" t="s">
@@ -3721,7 +3721,7 @@
       <c r="C48" s="1">
         <v>0</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <v>43294.104166666664</v>
       </c>
       <c r="E48">
@@ -3738,7 +3738,7 @@
       </c>
     </row>
     <row r="49" spans="1:42">
-      <c r="A49" s="14">
+      <c r="A49" s="13">
         <v>71</v>
       </c>
       <c r="B49" t="s">
@@ -3747,7 +3747,7 @@
       <c r="C49" s="1">
         <v>0</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="12">
         <v>43294.104166666664</v>
       </c>
       <c r="E49">
@@ -3764,7 +3764,7 @@
       </c>
     </row>
     <row r="50" spans="1:42">
-      <c r="A50" s="14">
+      <c r="A50" s="13">
         <v>66</v>
       </c>
       <c r="B50" t="s">
@@ -3773,7 +3773,7 @@
       <c r="C50" s="1">
         <v>0</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="12">
         <v>43294.0625</v>
       </c>
       <c r="E50">
@@ -3790,7 +3790,7 @@
       </c>
     </row>
     <row r="51" spans="1:42">
-      <c r="A51" s="14">
+      <c r="A51" s="13">
         <v>67</v>
       </c>
       <c r="B51" t="s">
@@ -3799,7 +3799,7 @@
       <c r="C51" s="1">
         <v>0</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="12">
         <v>43294.0625</v>
       </c>
       <c r="E51">
@@ -3816,7 +3816,7 @@
       </c>
     </row>
     <row r="52" spans="1:42">
-      <c r="A52" s="14">
+      <c r="A52" s="13">
         <v>26</v>
       </c>
       <c r="B52" t="s">
@@ -3825,7 +3825,7 @@
       <c r="C52" s="1">
         <v>0</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="12">
         <v>43293.833333333336</v>
       </c>
       <c r="E52">
@@ -3842,7 +3842,7 @@
       </c>
     </row>
     <row r="53" spans="1:42">
-      <c r="A53" s="14">
+      <c r="A53" s="13">
         <v>38</v>
       </c>
       <c r="B53" t="s">
@@ -3851,7 +3851,7 @@
       <c r="C53" s="1">
         <v>0</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="12">
         <v>43293.666666666664</v>
       </c>
       <c r="E53">
@@ -3871,7 +3871,7 @@
       </c>
     </row>
     <row r="54" spans="1:42">
-      <c r="A54" s="14">
+      <c r="A54" s="13">
         <v>47</v>
       </c>
       <c r="B54" t="s">
@@ -3880,7 +3880,7 @@
       <c r="C54" s="1">
         <v>0</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="12">
         <v>43293.666666666664</v>
       </c>
       <c r="E54">
@@ -3897,7 +3897,7 @@
       </c>
     </row>
     <row r="55" spans="1:42">
-      <c r="A55" s="14">
+      <c r="A55" s="13">
         <v>13</v>
       </c>
       <c r="B55" t="s">
@@ -3906,7 +3906,7 @@
       <c r="C55" s="1">
         <v>0</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="12">
         <v>43293.583333333336</v>
       </c>
       <c r="E55">
@@ -3944,7 +3944,7 @@
       </c>
     </row>
     <row r="56" spans="1:42">
-      <c r="A56" s="14">
+      <c r="A56" s="13">
         <v>29</v>
       </c>
       <c r="B56" t="s">
@@ -3953,7 +3953,7 @@
       <c r="C56" s="1">
         <v>0</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="12">
         <v>43293.5</v>
       </c>
       <c r="E56">
@@ -3982,7 +3982,7 @@
       </c>
     </row>
     <row r="57" spans="1:42">
-      <c r="A57" s="14">
+      <c r="A57" s="13">
         <v>31</v>
       </c>
       <c r="B57" t="s">
@@ -3991,7 +3991,7 @@
       <c r="C57" s="1">
         <v>0</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>43293.125</v>
       </c>
       <c r="E57">
@@ -4011,7 +4011,7 @@
       </c>
     </row>
     <row r="58" spans="1:42">
-      <c r="A58" s="14">
+      <c r="A58" s="13">
         <v>77</v>
       </c>
       <c r="B58" t="s">
@@ -4020,7 +4020,7 @@
       <c r="C58" s="1">
         <v>0</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="12">
         <v>43288.488194444442</v>
       </c>
       <c r="E58">
@@ -4037,7 +4037,7 @@
       </c>
     </row>
     <row r="59" spans="1:42">
-      <c r="A59" s="14">
+      <c r="A59" s="13">
         <v>25</v>
       </c>
       <c r="B59" t="s">
@@ -4046,7 +4046,7 @@
       <c r="C59" s="1">
         <v>0</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="12">
         <v>43287</v>
       </c>
       <c r="E59">
@@ -4069,7 +4069,7 @@
       </c>
     </row>
     <row r="60" spans="1:42">
-      <c r="A60" s="14">
+      <c r="A60" s="13">
         <v>27</v>
       </c>
       <c r="B60" t="s">
@@ -4078,7 +4078,7 @@
       <c r="C60" s="1">
         <v>0</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="12">
         <v>43287</v>
       </c>
       <c r="E60">
@@ -4095,7 +4095,7 @@
       </c>
     </row>
     <row r="61" spans="1:42">
-      <c r="A61" s="14">
+      <c r="A61" s="13">
         <v>2</v>
       </c>
       <c r="B61" t="s">
@@ -4104,7 +4104,7 @@
       <c r="C61" s="1">
         <v>0</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="12">
         <v>43286.1875</v>
       </c>
       <c r="E61">
@@ -4121,7 +4121,7 @@
       </c>
     </row>
     <row r="62" spans="1:42">
-      <c r="A62" s="14">
+      <c r="A62" s="13">
         <v>24</v>
       </c>
       <c r="B62" t="s">
@@ -4130,7 +4130,7 @@
       <c r="C62" s="1">
         <v>0</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="12">
         <v>43286</v>
       </c>
       <c r="E62">
@@ -4144,7 +4144,7 @@
       </c>
     </row>
     <row r="63" spans="1:42">
-      <c r="A63" s="14">
+      <c r="A63" s="13">
         <v>22</v>
       </c>
       <c r="B63" t="s">
@@ -4153,7 +4153,7 @@
       <c r="C63" s="1">
         <v>0</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="12">
         <v>43283.666666666664</v>
       </c>
       <c r="E63">
@@ -4167,7 +4167,7 @@
       </c>
     </row>
     <row r="64" spans="1:42">
-      <c r="A64" s="14">
+      <c r="A64" s="13">
         <v>21</v>
       </c>
       <c r="B64" t="s">
@@ -4176,7 +4176,7 @@
       <c r="C64" s="1">
         <v>0</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="12">
         <v>43283.0625</v>
       </c>
       <c r="E64">
@@ -4193,7 +4193,7 @@
       </c>
     </row>
     <row r="65" spans="1:43">
-      <c r="A65" s="14">
+      <c r="A65" s="13">
         <v>23</v>
       </c>
       <c r="B65" t="s">
@@ -4202,7 +4202,7 @@
       <c r="C65" s="1">
         <v>0</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="12">
         <v>43280.666666666664</v>
       </c>
       <c r="E65">
@@ -4216,7 +4216,7 @@
       </c>
     </row>
     <row r="66" spans="1:43">
-      <c r="A66" s="14">
+      <c r="A66" s="13">
         <v>20</v>
       </c>
       <c r="B66" t="s">
@@ -4225,7 +4225,7 @@
       <c r="C66" s="1">
         <v>0</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="12">
         <v>43280</v>
       </c>
       <c r="E66">
@@ -4239,7 +4239,7 @@
       </c>
     </row>
     <row r="67" spans="1:43">
-      <c r="A67" s="14">
+      <c r="A67" s="13">
         <v>19</v>
       </c>
       <c r="B67" t="s">
@@ -4248,7 +4248,7 @@
       <c r="C67" s="1">
         <v>0</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="12">
         <v>43279.666666666664</v>
       </c>
       <c r="E67">
@@ -4265,7 +4265,7 @@
       </c>
     </row>
     <row r="68" spans="1:43">
-      <c r="A68" s="14">
+      <c r="A68" s="13">
         <v>1</v>
       </c>
       <c r="B68" t="s">
@@ -4274,7 +4274,7 @@
       <c r="C68" s="1">
         <v>0</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="12">
         <v>43279.1875</v>
       </c>
       <c r="E68">
@@ -4291,7 +4291,7 @@
       </c>
     </row>
     <row r="69" spans="1:43">
-      <c r="A69" s="14">
+      <c r="A69" s="13">
         <v>18</v>
       </c>
       <c r="B69" t="s">
@@ -4300,7 +4300,7 @@
       <c r="C69" s="1">
         <v>0</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="12">
         <v>43279</v>
       </c>
       <c r="E69">
@@ -4317,7 +4317,7 @@
       </c>
     </row>
     <row r="70" spans="1:43">
-      <c r="A70" s="14">
+      <c r="A70" s="13">
         <v>17</v>
       </c>
       <c r="B70" t="s">
@@ -4326,7 +4326,7 @@
       <c r="C70" s="1">
         <v>0</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="12">
         <v>43277.1875</v>
       </c>
       <c r="E70">
@@ -4343,7 +4343,7 @@
       </c>
     </row>
     <row r="71" spans="1:43">
-      <c r="A71" s="14">
+      <c r="A71" s="13">
         <v>16</v>
       </c>
       <c r="B71" t="s">
@@ -4352,7 +4352,7 @@
       <c r="C71" s="1">
         <v>0</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="12">
         <v>43265.708333333336</v>
       </c>
       <c r="E71">
@@ -4369,7 +4369,7 @@
       </c>
     </row>
     <row r="72" spans="1:43">
-      <c r="A72" s="14">
+      <c r="A72" s="13">
         <v>15</v>
       </c>
       <c r="B72" t="s">
@@ -4378,7 +4378,7 @@
       <c r="C72" s="1">
         <v>0</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="12">
         <v>43265.041666666664</v>
       </c>
       <c r="E72">
@@ -4395,7 +4395,7 @@
       </c>
     </row>
     <row r="73" spans="1:43">
-      <c r="A73" s="14">
+      <c r="A73" s="13">
         <v>14</v>
       </c>
       <c r="B73" t="s">
@@ -4404,7 +4404,7 @@
       <c r="C73" s="1">
         <v>0</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="12">
         <v>43253.222222222219</v>
       </c>
       <c r="E73">
@@ -4421,7 +4421,7 @@
       </c>
     </row>
     <row r="74" spans="1:43">
-      <c r="A74" s="14">
+      <c r="A74" s="13">
         <v>10</v>
       </c>
       <c r="B74" t="s">
@@ -4430,7 +4430,7 @@
       <c r="C74" s="1">
         <v>0</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="12">
         <v>43039.615277777775</v>
       </c>
       <c r="E74">
@@ -4447,7 +4447,7 @@
       </c>
     </row>
     <row r="75" spans="1:43">
-      <c r="A75" s="14">
+      <c r="A75" s="13">
         <v>9</v>
       </c>
       <c r="B75" t="s">
@@ -4456,7 +4456,7 @@
       <c r="C75" s="1">
         <v>0</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="12">
         <v>42907.623611111114</v>
       </c>
       <c r="E75">
@@ -4473,7 +4473,7 @@
       </c>
     </row>
     <row r="76" spans="1:43">
-      <c r="A76" s="14">
+      <c r="A76" s="13">
         <v>11</v>
       </c>
       <c r="B76" t="s">
@@ -4482,7 +4482,7 @@
       <c r="C76" s="1">
         <v>0</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="12">
         <v>42901.25</v>
       </c>
       <c r="E76">
@@ -4499,7 +4499,7 @@
       </c>
     </row>
     <row r="77" spans="1:43">
-      <c r="A77" s="14">
+      <c r="A77" s="13">
         <v>12</v>
       </c>
       <c r="B77" t="s">
@@ -4508,7 +4508,7 @@
       <c r="C77" s="1">
         <v>0</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="12">
         <v>42901.25</v>
       </c>
       <c r="E77">
@@ -4525,7 +4525,7 @@
       </c>
     </row>
     <row r="78" spans="1:43">
-      <c r="A78" s="14">
+      <c r="A78" s="13">
         <v>8</v>
       </c>
       <c r="B78" t="s">
@@ -4534,7 +4534,7 @@
       <c r="C78" s="1">
         <v>0</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="12">
         <v>42828.333333333336</v>
       </c>
       <c r="E78">
@@ -4551,7 +4551,7 @@
       </c>
     </row>
     <row r="79" spans="1:43">
-      <c r="A79" s="14">
+      <c r="A79" s="13">
         <v>73</v>
       </c>
       <c r="B79" t="s">
@@ -4560,7 +4560,7 @@
       <c r="C79" s="1">
         <v>0</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="12">
         <v>42692.354166666664</v>
       </c>
       <c r="E79">
@@ -4577,7 +4577,7 @@
       </c>
     </row>
     <row r="80" spans="1:43">
-      <c r="A80" s="14">
+      <c r="A80" s="13">
         <v>72</v>
       </c>
       <c r="B80" t="s">
@@ -4586,7 +4586,7 @@
       <c r="C80" s="1">
         <v>0</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="12">
         <v>42663.354166666664</v>
       </c>
       <c r="E80">
@@ -4600,7 +4600,7 @@
       </c>
     </row>
     <row r="81" spans="1:37">
-      <c r="A81" s="14">
+      <c r="A81" s="13">
         <v>78</v>
       </c>
       <c r="B81" t="s">
@@ -4609,7 +4609,7 @@
       <c r="C81" s="1">
         <v>1</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="12">
         <v>43293.770833333336</v>
       </c>
       <c r="E81">
@@ -4626,7 +4626,7 @@
       </c>
     </row>
     <row r="82" spans="1:37">
-      <c r="A82" s="14">
+      <c r="A82" s="13">
         <v>79</v>
       </c>
       <c r="B82" t="s">
@@ -4635,7 +4635,7 @@
       <c r="C82" s="1">
         <v>4</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="12">
         <v>43294.291666666664</v>
       </c>
       <c r="E82">
@@ -4652,7 +4652,7 @@
       </c>
     </row>
     <row r="83" spans="1:37">
-      <c r="A83" s="14">
+      <c r="A83" s="13">
         <v>80</v>
       </c>
       <c r="B83" t="s">
@@ -4661,7 +4661,7 @@
       <c r="C83" s="1">
         <v>4</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="12">
         <v>42673.958333333336</v>
       </c>
       <c r="E83">
@@ -4678,7 +4678,7 @@
       </c>
     </row>
     <row r="84" spans="1:37">
-      <c r="A84" s="14">
+      <c r="A84" s="13">
         <v>81</v>
       </c>
       <c r="B84" t="s">
@@ -4687,7 +4687,7 @@
       <c r="C84" s="1">
         <v>5</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="12">
         <v>43294.291666666664</v>
       </c>
       <c r="E84">
@@ -4716,7 +4716,7 @@
       </c>
     </row>
     <row r="85" spans="1:37">
-      <c r="A85" s="14">
+      <c r="A85" s="13">
         <v>82</v>
       </c>
       <c r="B85" t="s">
@@ -4725,7 +4725,7 @@
       <c r="C85" s="1">
         <v>10</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="12">
         <v>43294.25</v>
       </c>
       <c r="E85">
@@ -4742,7 +4742,7 @@
       </c>
     </row>
     <row r="86" spans="1:37">
-      <c r="A86" s="14">
+      <c r="A86" s="13">
         <v>83</v>
       </c>
       <c r="B86" t="s">
@@ -4751,7 +4751,7 @@
       <c r="C86" s="1">
         <v>11</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="12">
         <v>43294.25</v>
       </c>
       <c r="E86">
@@ -4768,7 +4768,7 @@
       </c>
     </row>
     <row r="87" spans="1:37">
-      <c r="A87" s="14">
+      <c r="A87" s="13">
         <v>84</v>
       </c>
       <c r="B87" t="s">
@@ -4777,7 +4777,7 @@
       <c r="C87" s="1">
         <v>12</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="12">
         <v>43294.25</v>
       </c>
       <c r="E87">
@@ -4794,7 +4794,7 @@
       </c>
     </row>
     <row r="88" spans="1:37">
-      <c r="A88" s="14">
+      <c r="A88" s="13">
         <v>85</v>
       </c>
       <c r="B88" t="s">
@@ -4803,7 +4803,7 @@
       <c r="C88" s="1">
         <v>13</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="12">
         <v>43294.25</v>
       </c>
       <c r="E88">
@@ -4820,7 +4820,7 @@
       </c>
     </row>
     <row r="89" spans="1:37">
-      <c r="A89" s="14">
+      <c r="A89" s="13">
         <v>86</v>
       </c>
       <c r="B89" t="s">
@@ -4829,7 +4829,7 @@
       <c r="C89" s="1">
         <v>14</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="12">
         <v>43294.25</v>
       </c>
       <c r="E89">
@@ -4846,7 +4846,7 @@
       </c>
     </row>
     <row r="90" spans="1:37">
-      <c r="A90" s="14">
+      <c r="A90" s="13">
         <v>87</v>
       </c>
       <c r="B90" t="s">
@@ -4855,7 +4855,7 @@
       <c r="C90" s="1">
         <v>15</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="12">
         <v>43294.25</v>
       </c>
       <c r="E90">
@@ -4872,7 +4872,7 @@
       </c>
     </row>
     <row r="91" spans="1:37">
-      <c r="A91" s="14">
+      <c r="A91" s="13">
         <v>88</v>
       </c>
       <c r="B91" t="s">
@@ -4881,7 +4881,7 @@
       <c r="C91" s="1">
         <v>27</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="12">
         <v>42991.961805555555</v>
       </c>
       <c r="E91">
@@ -4898,7 +4898,7 @@
       </c>
     </row>
     <row r="92" spans="1:37">
-      <c r="A92" s="14">
+      <c r="A92" s="13">
         <v>89</v>
       </c>
       <c r="B92" t="s">
@@ -4907,7 +4907,7 @@
       <c r="C92" s="1">
         <v>30</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="12">
         <v>43293.916666666664</v>
       </c>
       <c r="E92">
@@ -4924,7 +4924,7 @@
       </c>
     </row>
     <row r="93" spans="1:37">
-      <c r="A93" s="14">
+      <c r="A93" s="13">
         <v>90</v>
       </c>
       <c r="B93" t="s">
@@ -4933,7 +4933,7 @@
       <c r="C93" s="1">
         <v>31</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="12">
         <v>43293.916666666664</v>
       </c>
       <c r="E93">
@@ -4950,7 +4950,7 @@
       </c>
     </row>
     <row r="94" spans="1:37">
-      <c r="A94" s="14">
+      <c r="A94" s="13">
         <v>91</v>
       </c>
       <c r="B94" t="s">
@@ -4959,7 +4959,7 @@
       <c r="C94" s="1">
         <v>32</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="12">
         <v>43293.916666666664</v>
       </c>
       <c r="E94">
@@ -4976,7 +4976,7 @@
       </c>
     </row>
     <row r="95" spans="1:37">
-      <c r="A95" s="14">
+      <c r="A95" s="13">
         <v>92</v>
       </c>
       <c r="B95" t="s">
@@ -4985,7 +4985,7 @@
       <c r="C95" s="1">
         <v>33</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="12">
         <v>43293.916666666664</v>
       </c>
       <c r="E95">
@@ -5002,7 +5002,7 @@
       </c>
     </row>
     <row r="96" spans="1:37">
-      <c r="A96" s="14">
+      <c r="A96" s="13">
         <v>93</v>
       </c>
       <c r="B96" t="s">
@@ -5011,7 +5011,7 @@
       <c r="C96" s="1">
         <v>34</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="12">
         <v>43293.916666666664</v>
       </c>
       <c r="E96">
@@ -5028,7 +5028,7 @@
       </c>
     </row>
     <row r="97" spans="1:43">
-      <c r="A97" s="14">
+      <c r="A97" s="13">
         <v>94</v>
       </c>
       <c r="B97" t="s">
@@ -5037,7 +5037,7 @@
       <c r="C97" s="1">
         <v>35</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="12">
         <v>43294</v>
       </c>
       <c r="E97">
@@ -5075,7 +5075,7 @@
       </c>
     </row>
     <row r="98" spans="1:43">
-      <c r="A98" s="14">
+      <c r="A98" s="13">
         <v>95</v>
       </c>
       <c r="B98" t="s">
@@ -5084,7 +5084,7 @@
       <c r="C98" s="1">
         <v>70</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="12">
         <v>42926.375</v>
       </c>
       <c r="E98">
@@ -5235,7 +5235,7 @@
       </c>
     </row>
     <row r="101" spans="1:43">
-      <c r="A101" s="15"/>
+      <c r="A101" s="14"/>
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>

--- a/ОтчетПоЗагруженности release.xlsx
+++ b/ОтчетПоЗагруженности release.xlsx
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AT26" sqref="AT26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ОтчетПоЗагруженности release.xlsx
+++ b/ОтчетПоЗагруженности release.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="381">
   <si>
     <t>Приоритет</t>
   </si>
@@ -509,18 +509,12 @@
     <t>10.481/9</t>
   </si>
   <si>
-    <t>2.922/6</t>
-  </si>
-  <si>
     <t>РЕЛ-000015762 (6/199)*</t>
   </si>
   <si>
     <t>27.722/32</t>
   </si>
   <si>
-    <t>26.742/47</t>
-  </si>
-  <si>
     <t>РЕЛ-000015191 (26/199)</t>
   </si>
   <si>
@@ -635,12 +629,6 @@
     <t>11.163/29</t>
   </si>
   <si>
-    <t>6.845/11</t>
-  </si>
-  <si>
-    <t>РЕЛ-000015759 (10/50)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000015759 (1/28)</t>
   </si>
   <si>
@@ -680,18 +668,9 @@
     <t>РЕЛ-000015860 - Калуга</t>
   </si>
   <si>
-    <t>3.114/2</t>
-  </si>
-  <si>
-    <t>РЕЛ-000015860 (0/46)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000015749 - Тамбов</t>
   </si>
   <si>
-    <t>2.234/2</t>
-  </si>
-  <si>
     <t>РЕЛ-000015749 (0/48)*</t>
   </si>
   <si>
@@ -701,21 +680,12 @@
     <t>4.744/17</t>
   </si>
   <si>
-    <t>0.036/2</t>
-  </si>
-  <si>
-    <t>РЕЛ-000015813 (2/49)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000015905 - г.Пенза</t>
   </si>
   <si>
     <t>2.675/7</t>
   </si>
   <si>
-    <t>РЕЛ-000015905 (0/0)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000015907 - г.Воронеж</t>
   </si>
   <si>
@@ -743,21 +713,12 @@
     <t>10.168/14</t>
   </si>
   <si>
-    <t>1.060/5</t>
-  </si>
-  <si>
     <t>РЕЛ-000015909 (1/199)</t>
   </si>
   <si>
-    <t>РЕЛ-000015909 (4/28)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000015910 - Тверь - Торжок</t>
   </si>
   <si>
-    <t>3.396/10</t>
-  </si>
-  <si>
     <t>1.574/12</t>
   </si>
   <si>
@@ -1055,9 +1016,6 @@
     <t>3.914/3</t>
   </si>
   <si>
-    <t>PЕМ-000005421 (3/46)*</t>
-  </si>
-  <si>
     <t>PЕМ-000005421 (1/49)</t>
   </si>
   <si>
@@ -1067,12 +1025,6 @@
     <t>4.523/24</t>
   </si>
   <si>
-    <t>0.902/4</t>
-  </si>
-  <si>
-    <t>РЕЛ-000015727 (4/24)*</t>
-  </si>
-  <si>
     <t>РЕЛ-000015769 - Ярославль - Кострома</t>
   </si>
   <si>
@@ -1103,24 +1055,9 @@
     <t xml:space="preserve"> (9/9/16) (Free= 7)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (17/17/46) (Free= 29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (24/24/50) (Free= 26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (8/8/28) (Free= 20)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (1/1/29) (Free= 28)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (7/7/49) (Free= 42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (5/6/24) (Free= 18)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (12/12/43) (Free= 31)</t>
   </si>
   <si>
@@ -1139,9 +1076,6 @@
     <t xml:space="preserve"> (4/4/26) (Free= 22)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (9/9/51) (Free= 42)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (1/1/28) (Free= 27)</t>
   </si>
   <si>
@@ -1160,26 +1094,98 @@
     <t xml:space="preserve"> (15/15/33) (Free= 18)</t>
   </si>
   <si>
-    <t>15.906/24</t>
-  </si>
-  <si>
-    <t>33.467/66</t>
-  </si>
-  <si>
     <t>4.590/21</t>
   </si>
   <si>
-    <t>6.926/14</t>
-  </si>
-  <si>
-    <t>1.661/4</t>
+    <t xml:space="preserve"> (21/21/46) (Free= 25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (26/26/50) (Free= 24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (12/12/28) (Free= 16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (9/9/49) (Free= 40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (10/11/24) (Free= 13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (10/10/51) (Free= 41)</t>
+  </si>
+  <si>
+    <t>2.945/6</t>
+  </si>
+  <si>
+    <t>26.806/47</t>
+  </si>
+  <si>
+    <t>33.677/66</t>
+  </si>
+  <si>
+    <t>9.027/13</t>
+  </si>
+  <si>
+    <t>РЕЛ-000015759 (12/50)*</t>
+  </si>
+  <si>
+    <t>3.673/16</t>
+  </si>
+  <si>
+    <t>0.091/3</t>
+  </si>
+  <si>
+    <t>РЕЛ-000015860 (3/46)*</t>
+  </si>
+  <si>
+    <t>2.408/14</t>
+  </si>
+  <si>
+    <t>0.041/4</t>
+  </si>
+  <si>
+    <t>РЕЛ-000015813 (4/49)*</t>
+  </si>
+  <si>
+    <t>0.029/1</t>
+  </si>
+  <si>
+    <t>РЕЛ-000015905 (1/51)</t>
+  </si>
+  <si>
+    <t>1.251/9</t>
+  </si>
+  <si>
+    <t>РЕЛ-000015909 (8/28)*</t>
+  </si>
+  <si>
+    <t>3.396/36</t>
+  </si>
+  <si>
+    <t>2.305/5</t>
+  </si>
+  <si>
+    <t>PЕМ-000005421 (4/46)*</t>
+  </si>
+  <si>
+    <t>0.921/9</t>
+  </si>
+  <si>
+    <t>РЕЛ-000015727 (9/24)*</t>
+  </si>
+  <si>
+    <t>16.303/24</t>
+  </si>
+  <si>
+    <t>7.269/14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1211,10 +1217,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,6 +1239,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1306,11 +1339,21 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="87">
     <dxf>
       <font>
         <b/>
@@ -1336,6 +1379,286 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1364,6 +1687,286 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1389,6 +1992,19 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -1573,60 +2189,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица__10.50.0.50_LEAD_1" displayName="Таблица__10.50.0.50_LEAD_1" ref="D1" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица__10.50.0.50_LEAD_1" displayName="Таблица__10.50.0.50_LEAD_1" ref="D1" tableType="queryTable" headerRowCount="0" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Столбец1" queryTableFieldId="1" headerRowDxfId="13" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="Столбец1" queryTableFieldId="1" headerRowDxfId="84" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица__10.50.0.50_LEAD" displayName="Таблица__10.50.0.50_LEAD" ref="A3:AQ71" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица__10.50.0.50_LEAD" displayName="Таблица__10.50.0.50_LEAD" ref="A3:AQ71" tableType="queryTable" totalsRowShown="0" headerRowDxfId="79">
   <autoFilter ref="A3:AQ71"/>
   <tableColumns count="43">
-    <tableColumn id="1" uniqueName="1" name="№ п/п" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" uniqueName="1" name="№ п/п" queryTableFieldId="1" dataDxfId="39"/>
     <tableColumn id="2" uniqueName="2" name="ПЛ+Направление" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Приоритет" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Дата и время отъезда" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Приоритет" queryTableFieldId="3" dataDxfId="38"/>
+    <tableColumn id="4" uniqueName="4" name="Дата и время отъезда" queryTableFieldId="4" dataDxfId="37"/>
     <tableColumn id="5" uniqueName="5" name="Заявок" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="План м3/ячеек" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="6" uniqueName="6" name="План м3/ячеек" queryTableFieldId="6" dataDxfId="36"/>
     <tableColumn id="7" uniqueName="7" name="Занято м3/ячеек" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="OUT7 (Сегмент 3)" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="OUT8 (Сегмент 3)" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="OUT9 (Сегмент 3)" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="OUT10 (Сегмент 3)" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="OUT11 (Сегмент 3)" queryTableFieldId="12"/>
-    <tableColumn id="13" uniqueName="13" name="OUT12 (Сегмент 3)" queryTableFieldId="13"/>
-    <tableColumn id="14" uniqueName="14" name="OUT13 (Сегмент 3)" queryTableFieldId="14"/>
-    <tableColumn id="15" uniqueName="15" name="OUT14 (Сегмент 3)" queryTableFieldId="15"/>
-    <tableColumn id="16" uniqueName="16" name="OUT15 (Сегмент 3)" queryTableFieldId="16"/>
-    <tableColumn id="17" uniqueName="17" name="OUT18 (Сегмент 1)" queryTableFieldId="17"/>
-    <tableColumn id="18" uniqueName="18" name="OUT19 (Сегмент 1)" queryTableFieldId="18"/>
-    <tableColumn id="19" uniqueName="19" name="OUT20 (Сегмент 1)" queryTableFieldId="19"/>
-    <tableColumn id="20" uniqueName="20" name="OUT21 (Сегмент 1)" queryTableFieldId="20"/>
-    <tableColumn id="21" uniqueName="21" name="OUT22 (Сегмент 1)" queryTableFieldId="21"/>
-    <tableColumn id="22" uniqueName="22" name="OUT23 (Сегмент 1)" queryTableFieldId="22"/>
-    <tableColumn id="23" uniqueName="23" name="OUT24 (Сегмент 1)" queryTableFieldId="23"/>
-    <tableColumn id="24" uniqueName="24" name="OUT25 (Сегмент 1)" queryTableFieldId="24"/>
-    <tableColumn id="25" uniqueName="25" name="OUT26 (Сегмент 1)" queryTableFieldId="25"/>
-    <tableColumn id="26" uniqueName="26" name="OUT27 (Сегмент 1)" queryTableFieldId="26"/>
-    <tableColumn id="27" uniqueName="27" name="OUT28 (Сегмент 1)" queryTableFieldId="27"/>
-    <tableColumn id="28" uniqueName="28" name="OUT29 (Сегмент 1)" queryTableFieldId="28"/>
-    <tableColumn id="29" uniqueName="29" name="OUT30 (Сегмент 2)" queryTableFieldId="29"/>
-    <tableColumn id="30" uniqueName="30" name="OUT31 (Сегмент 2)" queryTableFieldId="30"/>
-    <tableColumn id="31" uniqueName="31" name="OUT32 (Сегмент 2)" queryTableFieldId="31"/>
-    <tableColumn id="32" uniqueName="32" name="OUT33 (Сегмент 2)" queryTableFieldId="32"/>
-    <tableColumn id="33" uniqueName="33" name="OUT34 (Сегмент 2)" queryTableFieldId="33"/>
-    <tableColumn id="34" uniqueName="34" name="OUT35 (Сегмент 2)" queryTableFieldId="34"/>
-    <tableColumn id="35" uniqueName="35" name="OUT36 (Сегмент 2)" queryTableFieldId="35"/>
-    <tableColumn id="36" uniqueName="36" name="OUT37 (Сегмент 2)" queryTableFieldId="36"/>
-    <tableColumn id="37" uniqueName="37" name="OUT38 (Сегмент 2)" queryTableFieldId="37"/>
-    <tableColumn id="38" uniqueName="38" name="OUT39 (Сегмент 2)" queryTableFieldId="38"/>
-    <tableColumn id="39" uniqueName="39" name="OUT40 (Сегмент 2)" queryTableFieldId="39"/>
-    <tableColumn id="40" uniqueName="40" name="OUT41 (Сегмент 2)" queryTableFieldId="40"/>
-    <tableColumn id="41" uniqueName="41" name="OUT42 (Сегмент 2)" queryTableFieldId="41"/>
-    <tableColumn id="42" uniqueName="42" name="OUT43 (Сегмент 2)" queryTableFieldId="42"/>
+    <tableColumn id="8" uniqueName="8" name="OUT7 (Сегмент 3)" queryTableFieldId="8" dataDxfId="35"/>
+    <tableColumn id="9" uniqueName="9" name="OUT8 (Сегмент 3)" queryTableFieldId="9" dataDxfId="34"/>
+    <tableColumn id="10" uniqueName="10" name="OUT9 (Сегмент 3)" queryTableFieldId="10" dataDxfId="33"/>
+    <tableColumn id="11" uniqueName="11" name="OUT10 (Сегмент 3)" queryTableFieldId="11" dataDxfId="32"/>
+    <tableColumn id="12" uniqueName="12" name="OUT11 (Сегмент 3)" queryTableFieldId="12" dataDxfId="31"/>
+    <tableColumn id="13" uniqueName="13" name="OUT12 (Сегмент 3)" queryTableFieldId="13" dataDxfId="30"/>
+    <tableColumn id="14" uniqueName="14" name="OUT13 (Сегмент 3)" queryTableFieldId="14" dataDxfId="29"/>
+    <tableColumn id="15" uniqueName="15" name="OUT14 (Сегмент 3)" queryTableFieldId="15" dataDxfId="28"/>
+    <tableColumn id="16" uniqueName="16" name="OUT15 (Сегмент 3)" queryTableFieldId="16" dataDxfId="27"/>
+    <tableColumn id="17" uniqueName="17" name="OUT18 (Сегмент 1)" queryTableFieldId="17" dataDxfId="26"/>
+    <tableColumn id="18" uniqueName="18" name="OUT19 (Сегмент 1)" queryTableFieldId="18" dataDxfId="25"/>
+    <tableColumn id="19" uniqueName="19" name="OUT20 (Сегмент 1)" queryTableFieldId="19" dataDxfId="24"/>
+    <tableColumn id="20" uniqueName="20" name="OUT21 (Сегмент 1)" queryTableFieldId="20" dataDxfId="23"/>
+    <tableColumn id="21" uniqueName="21" name="OUT22 (Сегмент 1)" queryTableFieldId="21" dataDxfId="22"/>
+    <tableColumn id="22" uniqueName="22" name="OUT23 (Сегмент 1)" queryTableFieldId="22" dataDxfId="21"/>
+    <tableColumn id="23" uniqueName="23" name="OUT24 (Сегмент 1)" queryTableFieldId="23" dataDxfId="20"/>
+    <tableColumn id="24" uniqueName="24" name="OUT25 (Сегмент 1)" queryTableFieldId="24" dataDxfId="19"/>
+    <tableColumn id="25" uniqueName="25" name="OUT26 (Сегмент 1)" queryTableFieldId="25" dataDxfId="18"/>
+    <tableColumn id="26" uniqueName="26" name="OUT27 (Сегмент 1)" queryTableFieldId="26" dataDxfId="17"/>
+    <tableColumn id="27" uniqueName="27" name="OUT28 (Сегмент 1)" queryTableFieldId="27" dataDxfId="16"/>
+    <tableColumn id="28" uniqueName="28" name="OUT29 (Сегмент 1)" queryTableFieldId="28" dataDxfId="15"/>
+    <tableColumn id="29" uniqueName="29" name="OUT30 (Сегмент 2)" queryTableFieldId="29" dataDxfId="14"/>
+    <tableColumn id="30" uniqueName="30" name="OUT31 (Сегмент 2)" queryTableFieldId="30" dataDxfId="13"/>
+    <tableColumn id="31" uniqueName="31" name="OUT32 (Сегмент 2)" queryTableFieldId="31" dataDxfId="12"/>
+    <tableColumn id="32" uniqueName="32" name="OUT33 (Сегмент 2)" queryTableFieldId="32" dataDxfId="11"/>
+    <tableColumn id="33" uniqueName="33" name="OUT34 (Сегмент 2)" queryTableFieldId="33" dataDxfId="10"/>
+    <tableColumn id="34" uniqueName="34" name="OUT35 (Сегмент 2)" queryTableFieldId="34" dataDxfId="9"/>
+    <tableColumn id="35" uniqueName="35" name="OUT36 (Сегмент 2)" queryTableFieldId="35" dataDxfId="8"/>
+    <tableColumn id="36" uniqueName="36" name="OUT37 (Сегмент 2)" queryTableFieldId="36" dataDxfId="7"/>
+    <tableColumn id="37" uniqueName="37" name="OUT38 (Сегмент 2)" queryTableFieldId="37" dataDxfId="6"/>
+    <tableColumn id="38" uniqueName="38" name="OUT39 (Сегмент 2)" queryTableFieldId="38" dataDxfId="5"/>
+    <tableColumn id="39" uniqueName="39" name="OUT40 (Сегмент 2)" queryTableFieldId="39" dataDxfId="4"/>
+    <tableColumn id="40" uniqueName="40" name="OUT41 (Сегмент 2)" queryTableFieldId="40" dataDxfId="3"/>
+    <tableColumn id="41" uniqueName="41" name="OUT42 (Сегмент 2)" queryTableFieldId="41" dataDxfId="2"/>
+    <tableColumn id="42" uniqueName="42" name="OUT43 (Сегмент 2)" queryTableFieldId="42" dataDxfId="1"/>
     <tableColumn id="43" uniqueName="43" name="OUT1000 (Сегмент 1)" queryTableFieldId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1636,48 +2252,48 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица__10.50.0.50_LEAD_2" displayName="Таблица__10.50.0.50_LEAD_2" ref="A73:AQ73" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="43">
-    <tableColumn id="1" uniqueName="1" name="№ п/п" queryTableFieldId="1" headerRowDxfId="12" dataDxfId="8"/>
+    <tableColumn id="1" uniqueName="1" name="№ п/п" queryTableFieldId="1" headerRowDxfId="83" dataDxfId="78"/>
     <tableColumn id="2" uniqueName="2" name="ПЛ+Направление" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Приоритет" queryTableFieldId="3" headerRowDxfId="11" dataDxfId="7"/>
-    <tableColumn id="4" uniqueName="4" name="Дата и время отъезда" queryTableFieldId="4" headerRowDxfId="10" dataDxfId="6"/>
+    <tableColumn id="3" uniqueName="3" name="Приоритет" queryTableFieldId="3" headerRowDxfId="82" dataDxfId="77"/>
+    <tableColumn id="4" uniqueName="4" name="Дата и время отъезда" queryTableFieldId="4" headerRowDxfId="81" dataDxfId="76"/>
     <tableColumn id="5" uniqueName="5" name="Заявок" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="План м3/ячеек" queryTableFieldId="6" headerRowDxfId="9" dataDxfId="5"/>
+    <tableColumn id="6" uniqueName="6" name="План м3/ячеек" queryTableFieldId="6" headerRowDxfId="80" dataDxfId="75"/>
     <tableColumn id="7" uniqueName="7" name="Занято м3/ячеек" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="OUT7 (Сегмент 3)" queryTableFieldId="8"/>
-    <tableColumn id="9" uniqueName="9" name="OUT8 (Сегмент 3)" queryTableFieldId="9"/>
-    <tableColumn id="10" uniqueName="10" name="OUT9 (Сегмент 3)" queryTableFieldId="10"/>
-    <tableColumn id="11" uniqueName="11" name="OUT10 (Сегмент 3)" queryTableFieldId="11"/>
-    <tableColumn id="12" uniqueName="12" name="OUT11 (Сегмент 3)" queryTableFieldId="12"/>
-    <tableColumn id="13" uniqueName="13" name="OUT12 (Сегмент 3)" queryTableFieldId="13"/>
-    <tableColumn id="14" uniqueName="14" name="OUT13 (Сегмент 3)" queryTableFieldId="14"/>
-    <tableColumn id="15" uniqueName="15" name="OUT14 (Сегмент 3)" queryTableFieldId="15"/>
-    <tableColumn id="16" uniqueName="16" name="OUT15 (Сегмент 3)" queryTableFieldId="16"/>
-    <tableColumn id="17" uniqueName="17" name="OUT18 (Сегмент 1)" queryTableFieldId="17"/>
-    <tableColumn id="18" uniqueName="18" name="OUT19 (Сегмент 1)" queryTableFieldId="18"/>
-    <tableColumn id="19" uniqueName="19" name="OUT20 (Сегмент 1)" queryTableFieldId="19"/>
-    <tableColumn id="20" uniqueName="20" name="OUT21 (Сегмент 1)" queryTableFieldId="20"/>
-    <tableColumn id="21" uniqueName="21" name="OUT22 (Сегмент 1)" queryTableFieldId="21"/>
-    <tableColumn id="22" uniqueName="22" name="OUT23 (Сегмент 1)" queryTableFieldId="22"/>
-    <tableColumn id="23" uniqueName="23" name="OUT24 (Сегмент 1)" queryTableFieldId="23"/>
-    <tableColumn id="24" uniqueName="24" name="OUT25 (Сегмент 1)" queryTableFieldId="24"/>
-    <tableColumn id="25" uniqueName="25" name="OUT26 (Сегмент 1)" queryTableFieldId="25"/>
-    <tableColumn id="26" uniqueName="26" name="OUT27 (Сегмент 1)" queryTableFieldId="26"/>
-    <tableColumn id="27" uniqueName="27" name="OUT28 (Сегмент 1)" queryTableFieldId="27"/>
-    <tableColumn id="28" uniqueName="28" name="OUT29 (Сегмент 1)" queryTableFieldId="28"/>
-    <tableColumn id="29" uniqueName="29" name="OUT30 (Сегмент 2)" queryTableFieldId="29"/>
-    <tableColumn id="30" uniqueName="30" name="OUT31 (Сегмент 2)" queryTableFieldId="30"/>
-    <tableColumn id="31" uniqueName="31" name="OUT32 (Сегмент 2)" queryTableFieldId="31"/>
-    <tableColumn id="32" uniqueName="32" name="OUT33 (Сегмент 2)" queryTableFieldId="32"/>
-    <tableColumn id="33" uniqueName="33" name="OUT34 (Сегмент 2)" queryTableFieldId="33"/>
-    <tableColumn id="34" uniqueName="34" name="OUT35 (Сегмент 2)" queryTableFieldId="34"/>
-    <tableColumn id="35" uniqueName="35" name="OUT36 (Сегмент 2)" queryTableFieldId="35"/>
-    <tableColumn id="36" uniqueName="36" name="OUT37 (Сегмент 2)" queryTableFieldId="36"/>
-    <tableColumn id="37" uniqueName="37" name="OUT38 (Сегмент 2)" queryTableFieldId="37"/>
-    <tableColumn id="38" uniqueName="38" name="OUT39 (Сегмент 2)" queryTableFieldId="38"/>
-    <tableColumn id="39" uniqueName="39" name="OUT40 (Сегмент 2)" queryTableFieldId="39"/>
-    <tableColumn id="40" uniqueName="40" name="OUT41 (Сегмент 2)" queryTableFieldId="40"/>
-    <tableColumn id="41" uniqueName="41" name="OUT42 (Сегмент 2)" queryTableFieldId="41"/>
-    <tableColumn id="42" uniqueName="42" name="OUT43 (Сегмент 2)" queryTableFieldId="42"/>
+    <tableColumn id="8" uniqueName="8" name="OUT7 (Сегмент 3)" queryTableFieldId="8" dataDxfId="74"/>
+    <tableColumn id="9" uniqueName="9" name="OUT8 (Сегмент 3)" queryTableFieldId="9" dataDxfId="73"/>
+    <tableColumn id="10" uniqueName="10" name="OUT9 (Сегмент 3)" queryTableFieldId="10" dataDxfId="72"/>
+    <tableColumn id="11" uniqueName="11" name="OUT10 (Сегмент 3)" queryTableFieldId="11" dataDxfId="71"/>
+    <tableColumn id="12" uniqueName="12" name="OUT11 (Сегмент 3)" queryTableFieldId="12" dataDxfId="70"/>
+    <tableColumn id="13" uniqueName="13" name="OUT12 (Сегмент 3)" queryTableFieldId="13" dataDxfId="69"/>
+    <tableColumn id="14" uniqueName="14" name="OUT13 (Сегмент 3)" queryTableFieldId="14" dataDxfId="68"/>
+    <tableColumn id="15" uniqueName="15" name="OUT14 (Сегмент 3)" queryTableFieldId="15" dataDxfId="67"/>
+    <tableColumn id="16" uniqueName="16" name="OUT15 (Сегмент 3)" queryTableFieldId="16" dataDxfId="66"/>
+    <tableColumn id="17" uniqueName="17" name="OUT18 (Сегмент 1)" queryTableFieldId="17" dataDxfId="65"/>
+    <tableColumn id="18" uniqueName="18" name="OUT19 (Сегмент 1)" queryTableFieldId="18" dataDxfId="64"/>
+    <tableColumn id="19" uniqueName="19" name="OUT20 (Сегмент 1)" queryTableFieldId="19" dataDxfId="63"/>
+    <tableColumn id="20" uniqueName="20" name="OUT21 (Сегмент 1)" queryTableFieldId="20" dataDxfId="62"/>
+    <tableColumn id="21" uniqueName="21" name="OUT22 (Сегмент 1)" queryTableFieldId="21" dataDxfId="61"/>
+    <tableColumn id="22" uniqueName="22" name="OUT23 (Сегмент 1)" queryTableFieldId="22" dataDxfId="60"/>
+    <tableColumn id="23" uniqueName="23" name="OUT24 (Сегмент 1)" queryTableFieldId="23" dataDxfId="59"/>
+    <tableColumn id="24" uniqueName="24" name="OUT25 (Сегмент 1)" queryTableFieldId="24" dataDxfId="58"/>
+    <tableColumn id="25" uniqueName="25" name="OUT26 (Сегмент 1)" queryTableFieldId="25" dataDxfId="57"/>
+    <tableColumn id="26" uniqueName="26" name="OUT27 (Сегмент 1)" queryTableFieldId="26" dataDxfId="56"/>
+    <tableColumn id="27" uniqueName="27" name="OUT28 (Сегмент 1)" queryTableFieldId="27" dataDxfId="55"/>
+    <tableColumn id="28" uniqueName="28" name="OUT29 (Сегмент 1)" queryTableFieldId="28" dataDxfId="54"/>
+    <tableColumn id="29" uniqueName="29" name="OUT30 (Сегмент 2)" queryTableFieldId="29" dataDxfId="53"/>
+    <tableColumn id="30" uniqueName="30" name="OUT31 (Сегмент 2)" queryTableFieldId="30" dataDxfId="52"/>
+    <tableColumn id="31" uniqueName="31" name="OUT32 (Сегмент 2)" queryTableFieldId="31" dataDxfId="51"/>
+    <tableColumn id="32" uniqueName="32" name="OUT33 (Сегмент 2)" queryTableFieldId="32" dataDxfId="50"/>
+    <tableColumn id="33" uniqueName="33" name="OUT34 (Сегмент 2)" queryTableFieldId="33" dataDxfId="49"/>
+    <tableColumn id="34" uniqueName="34" name="OUT35 (Сегмент 2)" queryTableFieldId="34" dataDxfId="48"/>
+    <tableColumn id="35" uniqueName="35" name="OUT36 (Сегмент 2)" queryTableFieldId="35" dataDxfId="47"/>
+    <tableColumn id="36" uniqueName="36" name="OUT37 (Сегмент 2)" queryTableFieldId="36" dataDxfId="46"/>
+    <tableColumn id="37" uniqueName="37" name="OUT38 (Сегмент 2)" queryTableFieldId="37" dataDxfId="45"/>
+    <tableColumn id="38" uniqueName="38" name="OUT39 (Сегмент 2)" queryTableFieldId="38" dataDxfId="44"/>
+    <tableColumn id="39" uniqueName="39" name="OUT40 (Сегмент 2)" queryTableFieldId="39" dataDxfId="43"/>
+    <tableColumn id="40" uniqueName="40" name="OUT41 (Сегмент 2)" queryTableFieldId="40" dataDxfId="42"/>
+    <tableColumn id="41" uniqueName="41" name="OUT42 (Сегмент 2)" queryTableFieldId="41" dataDxfId="41"/>
+    <tableColumn id="42" uniqueName="42" name="OUT43 (Сегмент 2)" queryTableFieldId="42" dataDxfId="40"/>
     <tableColumn id="43" uniqueName="43" name="OUT1000 (Сегмент 1)" queryTableFieldId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2022,7 +2638,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="4">
-        <v>43297.628350312501</v>
+        <v>43297.636856134261</v>
       </c>
     </row>
     <row r="2" spans="1:54" ht="18.75">
@@ -2080,130 +2696,130 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2229,9 +2845,43 @@
       <c r="G4" t="s">
         <v>144</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17" t="s">
         <v>145</v>
       </c>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
     </row>
     <row r="5" spans="1:54">
       <c r="A5" s="3">
@@ -2255,9 +2905,43 @@
       <c r="G5" t="s">
         <v>148</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16" t="s">
         <v>149</v>
       </c>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
     </row>
     <row r="6" spans="1:54">
       <c r="A6" s="3">
@@ -2279,14 +2963,47 @@
         <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="U6" t="s">
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16" t="s">
         <v>153</v>
       </c>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
     </row>
     <row r="7" spans="1:54">
       <c r="A7" s="3">
@@ -2310,9 +3027,43 @@
       <c r="G7" t="s">
         <v>61</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17" t="s">
         <v>154</v>
       </c>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
     </row>
     <row r="8" spans="1:54">
       <c r="A8" s="3">
@@ -2334,11 +3085,45 @@
         <v>156</v>
       </c>
       <c r="G8" t="s">
+        <v>359</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="Q8" t="s">
-        <v>158</v>
-      </c>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
     </row>
     <row r="9" spans="1:54">
       <c r="A9" s="3">
@@ -2357,163 +3142,363 @@
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" t="s">
+        <v>360</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="G9" t="s">
+      <c r="R9" s="16"/>
+      <c r="S9" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="T9" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="T9" t="s">
-        <v>163</v>
-      </c>
-      <c r="W9" t="s">
-        <v>164</v>
-      </c>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
     </row>
     <row r="10" spans="1:54">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>329</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <v>43299.731249999997</v>
+        <v>43299.958333333336</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>166</v>
+        <v>330</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>168</v>
-      </c>
-      <c r="T10" t="s">
-        <v>169</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
     </row>
     <row r="11" spans="1:54">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <v>43299.375</v>
+        <v>43299.731249999997</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>172</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
     </row>
     <row r="12" spans="1:54">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <v>43299.25</v>
+        <v>43299.375</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G12" t="s">
-        <v>175</v>
-      </c>
-      <c r="W12" t="s">
-        <v>176</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
     </row>
     <row r="13" spans="1:54">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="14">
-        <v>43299.125</v>
+        <v>43299.25</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
-      </c>
-      <c r="P13" t="s">
-        <v>179</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
     </row>
     <row r="14" spans="1:54">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="14">
-        <v>43299</v>
+        <v>43299.125</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G14" t="s">
         <v>64</v>
       </c>
-      <c r="L14" t="s">
-        <v>182</v>
-      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
     </row>
     <row r="15" spans="1:54">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2522,65 +3507,118 @@
         <v>43299</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>184</v>
-      </c>
-      <c r="S15" t="s">
-        <v>185</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
     </row>
     <row r="16" spans="1:54">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="14">
-        <v>43298.958333333336</v>
+        <v>43299</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>188</v>
-      </c>
-      <c r="R16" t="s">
-        <v>189</v>
-      </c>
-      <c r="S16" t="s">
-        <v>190</v>
-      </c>
-      <c r="T16" t="s">
-        <v>191</v>
-      </c>
-      <c r="U16" t="s">
-        <v>192</v>
-      </c>
-      <c r="V16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:43">
+        <v>182</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+    </row>
+    <row r="17" spans="1:42">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -2589,212 +3627,492 @@
         <v>43298.958333333336</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43">
+        <v>361</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
+    </row>
+    <row r="18" spans="1:42">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="14">
-        <v>43298.458333333336</v>
+        <v>43298.958333333336</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>199</v>
-      </c>
-      <c r="W18" t="s">
-        <v>200</v>
-      </c>
-      <c r="X18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43">
+        <v>193</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
+    </row>
+    <row r="19" spans="1:42">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="14">
-        <v>43298.208333333336</v>
+        <v>43298.458333333336</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>205</v>
-      </c>
-      <c r="T19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43">
+        <v>362</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="14">
-        <v>43298.125</v>
+        <v>43298.208333333336</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43">
+        <v>200</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+    </row>
+    <row r="21" spans="1:42">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="14">
-        <v>43298.104166666664</v>
+        <v>43298.125</v>
       </c>
       <c r="E21">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>376</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43">
+        <v>204</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+    </row>
+    <row r="22" spans="1:42">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="14">
-        <v>43298.083333333336</v>
+        <v>43298.104166666664</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>214</v>
+        <v>352</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
-      </c>
-      <c r="V22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43">
+        <v>207</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+    </row>
+    <row r="23" spans="1:42">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="14">
-        <v>43297.979166666664</v>
+        <v>43298.083333333336</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>217</v>
+        <v>364</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43">
+        <v>365</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+    </row>
+    <row r="24" spans="1:42">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="14">
-        <v>43297.958333333336</v>
+        <v>43297.979166666664</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>220</v>
+        <v>367</v>
       </c>
       <c r="G24" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43">
+        <v>64</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+    </row>
+    <row r="25" spans="1:42">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -2803,24 +4121,58 @@
         <v>43297.958333333336</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:43">
+        <v>368</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+    </row>
+    <row r="26" spans="1:42">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -2829,36 +4181,58 @@
         <v>43297.958333333336</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>228</v>
-      </c>
-      <c r="T26" t="s">
-        <v>229</v>
-      </c>
-      <c r="U26" t="s">
-        <v>230</v>
-      </c>
-      <c r="V26" t="s">
-        <v>231</v>
-      </c>
-      <c r="X26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43">
+        <v>370</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -2867,27 +4241,66 @@
         <v>43297.958333333336</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>236</v>
-      </c>
-      <c r="X27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43">
+        <v>380</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="17"/>
+    </row>
+    <row r="28" spans="1:42">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -2896,36 +4309,60 @@
         <v>43297.958333333336</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>240</v>
-      </c>
-      <c r="S28" t="s">
-        <v>241</v>
-      </c>
-      <c r="V28" t="s">
-        <v>242</v>
-      </c>
-      <c r="W28" t="s">
-        <v>243</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>244</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:43">
+        <v>372</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+    </row>
+    <row r="29" spans="1:42">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -2934,59 +4371,126 @@
         <v>43297.958333333336</v>
       </c>
       <c r="E29">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>247</v>
+        <v>374</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43">
+        <v>227</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="W29" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="14">
-        <v>43297.9375</v>
+        <v>43297.958333333336</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G30" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>252</v>
-      </c>
-      <c r="T30" t="s">
-        <v>253</v>
-      </c>
-      <c r="U30" t="s">
-        <v>254</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43">
+        <v>64</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="17"/>
+    </row>
+    <row r="31" spans="1:42">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -2995,39 +4499,64 @@
         <v>43297.9375</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>259</v>
-      </c>
-      <c r="S31" t="s">
-        <v>260</v>
-      </c>
-      <c r="T31" t="s">
-        <v>261</v>
-      </c>
-      <c r="U31" t="s">
-        <v>262</v>
-      </c>
-      <c r="W31" t="s">
-        <v>263</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43">
+        <v>238</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="U31" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP31" s="17"/>
+    </row>
+    <row r="32" spans="1:42">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -3036,112 +4565,254 @@
         <v>43297.9375</v>
       </c>
       <c r="E32">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>267</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP32" s="17"/>
     </row>
     <row r="33" spans="1:42">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="14">
-        <v>43297.916666666664</v>
+        <v>43297.9375</v>
       </c>
       <c r="E33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="G33" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>271</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
     </row>
     <row r="34" spans="1:42">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>255</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
       </c>
       <c r="D34" s="14">
-        <v>43297.583333333336</v>
+        <v>43297.916666666664</v>
       </c>
       <c r="E34">
-        <v>639</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="G34" t="s">
-        <v>273</v>
-      </c>
-      <c r="S34" t="s">
-        <v>71</v>
-      </c>
-      <c r="W34" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>275</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>276</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>73</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
     </row>
     <row r="35" spans="1:42">
       <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>277</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
       <c r="D35" s="14">
-        <v>43294.513194444444</v>
+        <v>43297.583333333336</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>639</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>260</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA35" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN35" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="AO35" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP35" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:42">
@@ -3149,94 +4820,187 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36" s="14">
-        <v>43293.666666666664</v>
+        <v>43294.513194444444</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>69</v>
-      </c>
-      <c r="V36" t="s">
-        <v>70</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17"/>
     </row>
     <row r="37" spans="1:42">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
       <c r="D37" s="14">
-        <v>43288.488194444442</v>
+        <v>43293.666666666664</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
     </row>
     <row r="38" spans="1:42">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="D38" s="14">
-        <v>43287</v>
+        <v>43288.488194444442</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP38" s="17"/>
     </row>
     <row r="39" spans="1:42">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -3245,371 +5009,889 @@
         <v>43287</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>86</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="17"/>
     </row>
     <row r="40" spans="1:42">
       <c r="A40" s="3">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40" s="14">
-        <v>43286.1875</v>
+        <v>43287</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>90</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="17"/>
+      <c r="AO40" s="17"/>
+      <c r="AP40" s="17"/>
     </row>
     <row r="41" spans="1:42">
       <c r="A41" s="3">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
       </c>
       <c r="D41" s="14">
-        <v>43283.666666666664</v>
+        <v>43286.1875</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
+      <c r="AM41" s="17"/>
+      <c r="AN41" s="17"/>
+      <c r="AO41" s="17"/>
+      <c r="AP41" s="17"/>
     </row>
     <row r="42" spans="1:42">
       <c r="A42" s="3">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="14">
-        <v>43283.0625</v>
+        <v>43283.666666666664</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s">
         <v>64</v>
       </c>
-      <c r="S42" t="s">
-        <v>95</v>
-      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="17"/>
+      <c r="AN42" s="17"/>
+      <c r="AO42" s="17"/>
+      <c r="AP42" s="17"/>
     </row>
     <row r="43" spans="1:42">
       <c r="A43" s="3">
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
       </c>
       <c r="D43" s="14">
-        <v>43280.666666666664</v>
+        <v>43283.0625</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
         <v>64</v>
       </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
+      <c r="AM43" s="17"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="17"/>
+      <c r="AP43" s="17"/>
     </row>
     <row r="44" spans="1:42">
       <c r="A44" s="3">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
       </c>
       <c r="D44" s="14">
-        <v>43280</v>
+        <v>43280.666666666664</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s">
         <v>64</v>
       </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="17"/>
+      <c r="AM44" s="17"/>
+      <c r="AN44" s="17"/>
+      <c r="AO44" s="17"/>
+      <c r="AP44" s="17"/>
     </row>
     <row r="45" spans="1:42">
       <c r="A45" s="3">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45" s="14">
-        <v>43279.666666666664</v>
+        <v>43280</v>
       </c>
       <c r="E45">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>60</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="17"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
+      <c r="AJ45" s="17"/>
+      <c r="AK45" s="17"/>
+      <c r="AL45" s="17"/>
+      <c r="AM45" s="17"/>
+      <c r="AN45" s="17"/>
+      <c r="AO45" s="17"/>
+      <c r="AP45" s="17"/>
     </row>
     <row r="46" spans="1:42">
       <c r="A46" s="3">
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="D46" s="14">
-        <v>43279.1875</v>
+        <v>43279.666666666664</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>100</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="17"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="17"/>
+      <c r="AN46" s="17"/>
+      <c r="AO46" s="17"/>
+      <c r="AP46" s="17"/>
     </row>
     <row r="47" spans="1:42">
       <c r="A47" s="3">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
       <c r="D47" s="14">
-        <v>43279</v>
+        <v>43279.1875</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="G47" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>103</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG47" s="17"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
+      <c r="AJ47" s="17"/>
+      <c r="AK47" s="17"/>
+      <c r="AL47" s="17"/>
+      <c r="AM47" s="17"/>
+      <c r="AN47" s="17"/>
+      <c r="AO47" s="17"/>
+      <c r="AP47" s="17"/>
     </row>
     <row r="48" spans="1:42">
       <c r="A48" s="3">
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
       </c>
       <c r="D48" s="14">
-        <v>43277.1875</v>
+        <v>43279</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
-      </c>
-      <c r="S48" t="s">
-        <v>54</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="17"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="17"/>
+      <c r="AL48" s="17"/>
+      <c r="AM48" s="17"/>
+      <c r="AN48" s="17"/>
+      <c r="AO48" s="17"/>
+      <c r="AP48" s="17"/>
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="3">
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
       </c>
       <c r="D49" s="14">
-        <v>43265.708333333336</v>
+        <v>43277.1875</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
-      </c>
-      <c r="U49" t="s">
-        <v>107</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="17"/>
+      <c r="AD49" s="17"/>
+      <c r="AE49" s="17"/>
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="17"/>
+      <c r="AH49" s="17"/>
+      <c r="AI49" s="17"/>
+      <c r="AJ49" s="17"/>
+      <c r="AK49" s="17"/>
+      <c r="AL49" s="17"/>
+      <c r="AM49" s="17"/>
+      <c r="AN49" s="17"/>
+      <c r="AO49" s="17"/>
+      <c r="AP49" s="17"/>
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="3">
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
       </c>
       <c r="D50" s="14">
-        <v>43265.041666666664</v>
+        <v>43265.708333333336</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G50" t="s">
         <v>64</v>
       </c>
-      <c r="J50" t="s">
-        <v>110</v>
-      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="17"/>
+      <c r="AD50" s="17"/>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="17"/>
+      <c r="AG50" s="17"/>
+      <c r="AH50" s="17"/>
+      <c r="AI50" s="17"/>
+      <c r="AJ50" s="17"/>
+      <c r="AK50" s="17"/>
+      <c r="AL50" s="17"/>
+      <c r="AM50" s="17"/>
+      <c r="AN50" s="17"/>
+      <c r="AO50" s="17"/>
+      <c r="AP50" s="17"/>
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="3">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
       <c r="D51" s="14">
-        <v>43253.222222222219</v>
+        <v>43265.041666666664</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G51" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>112</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="17"/>
+      <c r="AH51" s="17"/>
+      <c r="AI51" s="17"/>
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
+      <c r="AL51" s="17"/>
+      <c r="AM51" s="17"/>
+      <c r="AN51" s="17"/>
+      <c r="AO51" s="17"/>
+      <c r="AP51" s="17"/>
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="3">
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
       </c>
       <c r="D52" s="14">
-        <v>43039.615277777775</v>
+        <v>43253.222222222219</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G52" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ52" t="s">
-        <v>115</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="17"/>
+      <c r="AD52" s="17"/>
+      <c r="AE52" s="17"/>
+      <c r="AF52" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG52" s="17"/>
+      <c r="AH52" s="17"/>
+      <c r="AI52" s="17"/>
+      <c r="AJ52" s="17"/>
+      <c r="AK52" s="17"/>
+      <c r="AL52" s="17"/>
+      <c r="AM52" s="17"/>
+      <c r="AN52" s="17"/>
+      <c r="AO52" s="17"/>
+      <c r="AP52" s="17"/>
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="3">
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
       <c r="D53" s="14">
-        <v>42907.623611111114</v>
+        <v>43039.615277777775</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G53" t="s">
         <v>64</v>
       </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="17"/>
+      <c r="AD53" s="17"/>
+      <c r="AE53" s="17"/>
+      <c r="AF53" s="17"/>
+      <c r="AG53" s="17"/>
+      <c r="AH53" s="17"/>
+      <c r="AI53" s="17"/>
+      <c r="AJ53" s="17"/>
+      <c r="AK53" s="17"/>
+      <c r="AL53" s="17"/>
+      <c r="AM53" s="17"/>
+      <c r="AN53" s="17"/>
+      <c r="AO53" s="17"/>
+      <c r="AP53" s="17"/>
       <c r="AQ53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -3617,25 +5899,60 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="14">
-        <v>42901.25</v>
+        <v>42907.623611111114</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G54" t="s">
         <v>64</v>
       </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="17"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="17"/>
+      <c r="AG54" s="17"/>
+      <c r="AH54" s="17"/>
+      <c r="AI54" s="17"/>
+      <c r="AJ54" s="17"/>
+      <c r="AK54" s="17"/>
+      <c r="AL54" s="17"/>
+      <c r="AM54" s="17"/>
+      <c r="AN54" s="17"/>
+      <c r="AO54" s="17"/>
+      <c r="AP54" s="17"/>
       <c r="AQ54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -3643,7 +5960,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -3652,16 +5969,51 @@
         <v>42901.25</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G55" t="s">
         <v>64</v>
       </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="17"/>
+      <c r="AD55" s="17"/>
+      <c r="AE55" s="17"/>
+      <c r="AF55" s="17"/>
+      <c r="AG55" s="17"/>
+      <c r="AH55" s="17"/>
+      <c r="AI55" s="17"/>
+      <c r="AJ55" s="17"/>
+      <c r="AK55" s="17"/>
+      <c r="AL55" s="17"/>
+      <c r="AM55" s="17"/>
+      <c r="AN55" s="17"/>
+      <c r="AO55" s="17"/>
+      <c r="AP55" s="17"/>
       <c r="AQ55" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -3669,25 +6021,60 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="14">
-        <v>42828.333333333336</v>
+        <v>42901.25</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G56" t="s">
         <v>64</v>
       </c>
-      <c r="V56" t="s">
-        <v>127</v>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="17"/>
+      <c r="AD56" s="17"/>
+      <c r="AE56" s="17"/>
+      <c r="AF56" s="17"/>
+      <c r="AG56" s="17"/>
+      <c r="AH56" s="17"/>
+      <c r="AI56" s="17"/>
+      <c r="AJ56" s="17"/>
+      <c r="AK56" s="17"/>
+      <c r="AL56" s="17"/>
+      <c r="AM56" s="17"/>
+      <c r="AN56" s="17"/>
+      <c r="AO56" s="17"/>
+      <c r="AP56" s="17"/>
+      <c r="AQ56" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -3695,48 +6082,120 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="14">
-        <v>42692.354166666664</v>
+        <v>42828.333333333336</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G57" t="s">
         <v>64</v>
       </c>
-      <c r="AQ57" t="s">
-        <v>130</v>
-      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="17"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="17"/>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="17"/>
+      <c r="AJ57" s="17"/>
+      <c r="AK57" s="17"/>
+      <c r="AL57" s="17"/>
+      <c r="AM57" s="17"/>
+      <c r="AN57" s="17"/>
+      <c r="AO57" s="17"/>
+      <c r="AP57" s="17"/>
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="3">
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="14">
-        <v>42663.354166666664</v>
+        <v>42692.354166666664</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G58" t="s">
         <v>64</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="17"/>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="17"/>
+      <c r="AH58" s="17"/>
+      <c r="AI58" s="17"/>
+      <c r="AJ58" s="17"/>
+      <c r="AK58" s="17"/>
+      <c r="AL58" s="17"/>
+      <c r="AM58" s="17"/>
+      <c r="AN58" s="17"/>
+      <c r="AO58" s="17"/>
+      <c r="AP58" s="17"/>
+      <c r="AQ58" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -3744,116 +6203,197 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="14">
+        <v>42663.354166666664</v>
+      </c>
+      <c r="E59">
         <v>4</v>
       </c>
-      <c r="D59" s="14">
-        <v>42673.958333333336</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
       </c>
-      <c r="U59" t="s">
-        <v>135</v>
-      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="17"/>
+      <c r="AD59" s="17"/>
+      <c r="AE59" s="17"/>
+      <c r="AF59" s="17"/>
+      <c r="AG59" s="17"/>
+      <c r="AH59" s="17"/>
+      <c r="AI59" s="17"/>
+      <c r="AJ59" s="17"/>
+      <c r="AK59" s="17"/>
+      <c r="AL59" s="17"/>
+      <c r="AM59" s="17"/>
+      <c r="AN59" s="17"/>
+      <c r="AO59" s="17"/>
+      <c r="AP59" s="17"/>
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="3">
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="C60" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" s="14">
-        <v>43298.125</v>
+        <v>42673.958333333336</v>
       </c>
       <c r="E60">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="G60" t="s">
-        <v>282</v>
-      </c>
-      <c r="W60" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>289</v>
-      </c>
-      <c r="AM60" t="s">
-        <v>290</v>
-      </c>
-      <c r="AN60" t="s">
-        <v>291</v>
-      </c>
-      <c r="AO60" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP60" t="s">
-        <v>293</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="16"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="17"/>
+      <c r="AH60" s="17"/>
+      <c r="AI60" s="17"/>
+      <c r="AJ60" s="17"/>
+      <c r="AK60" s="17"/>
+      <c r="AL60" s="17"/>
+      <c r="AM60" s="17"/>
+      <c r="AN60" s="17"/>
+      <c r="AO60" s="17"/>
+      <c r="AP60" s="17"/>
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="3">
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C61" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" s="14">
-        <v>43298.25</v>
+        <v>43298.125</v>
       </c>
       <c r="E61">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="G61" t="s">
-        <v>296</v>
-      </c>
-      <c r="M61" t="s">
-        <v>297</v>
-      </c>
-      <c r="N61" t="s">
-        <v>298</v>
-      </c>
-      <c r="O61" t="s">
-        <v>299</v>
-      </c>
-      <c r="P61" t="s">
-        <v>300</v>
+        <v>269</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC61" s="17"/>
+      <c r="AD61" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE61" s="17"/>
+      <c r="AF61" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG61" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH61" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="AI61" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ61" s="17"/>
+      <c r="AK61" s="17"/>
+      <c r="AL61" s="17"/>
+      <c r="AM61" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN61" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO61" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP61" s="17" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -3861,294 +6401,586 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C62" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" s="14">
-        <v>43298.5</v>
+        <v>43298.25</v>
       </c>
       <c r="E62">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="G62" t="s">
-        <v>303</v>
-      </c>
-      <c r="H62" t="s">
-        <v>304</v>
-      </c>
-      <c r="I62" t="s">
-        <v>305</v>
-      </c>
-      <c r="N62" t="s">
-        <v>306</v>
-      </c>
-      <c r="O62" t="s">
-        <v>307</v>
-      </c>
-      <c r="P62" t="s">
-        <v>308</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="N62" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="O62" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="16"/>
+      <c r="Y62" s="16"/>
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="17"/>
+      <c r="AD62" s="17"/>
+      <c r="AE62" s="17"/>
+      <c r="AF62" s="17"/>
+      <c r="AG62" s="17"/>
+      <c r="AH62" s="17"/>
+      <c r="AI62" s="17"/>
+      <c r="AJ62" s="17"/>
+      <c r="AK62" s="17"/>
+      <c r="AL62" s="17"/>
+      <c r="AM62" s="17"/>
+      <c r="AN62" s="17"/>
+      <c r="AO62" s="17"/>
+      <c r="AP62" s="17"/>
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="3">
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="C63" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" s="14">
-        <v>43298.833333333336</v>
+        <v>43298.5</v>
       </c>
       <c r="E63">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="G63" t="s">
-        <v>311</v>
-      </c>
-      <c r="K63" t="s">
-        <v>312</v>
-      </c>
-      <c r="L63" t="s">
-        <v>313</v>
-      </c>
-      <c r="M63" t="s">
-        <v>314</v>
-      </c>
-      <c r="P63" t="s">
-        <v>315</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="O63" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="17"/>
+      <c r="AD63" s="17"/>
+      <c r="AE63" s="17"/>
+      <c r="AF63" s="17"/>
+      <c r="AG63" s="17"/>
+      <c r="AH63" s="17"/>
+      <c r="AI63" s="17"/>
+      <c r="AJ63" s="17"/>
+      <c r="AK63" s="17"/>
+      <c r="AL63" s="17"/>
+      <c r="AM63" s="17"/>
+      <c r="AN63" s="17"/>
+      <c r="AO63" s="17"/>
+      <c r="AP63" s="17"/>
     </row>
     <row r="64" spans="1:43">
       <c r="A64" s="3">
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C64" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="14">
-        <v>43298.5</v>
+        <v>43298.833333333336</v>
       </c>
       <c r="E64">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="G64" t="s">
-        <v>318</v>
-      </c>
-      <c r="H64" t="s">
-        <v>319</v>
-      </c>
-      <c r="I64" t="s">
-        <v>320</v>
-      </c>
-      <c r="J64" t="s">
-        <v>321</v>
-      </c>
-      <c r="K64" t="s">
-        <v>322</v>
-      </c>
-      <c r="N64" t="s">
-        <v>323</v>
-      </c>
-      <c r="O64" t="s">
-        <v>324</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="17"/>
+      <c r="AD64" s="17"/>
+      <c r="AE64" s="17"/>
+      <c r="AF64" s="17"/>
+      <c r="AG64" s="17"/>
+      <c r="AH64" s="17"/>
+      <c r="AI64" s="17"/>
+      <c r="AJ64" s="17"/>
+      <c r="AK64" s="17"/>
+      <c r="AL64" s="17"/>
+      <c r="AM64" s="17"/>
+      <c r="AN64" s="17"/>
+      <c r="AO64" s="17"/>
+      <c r="AP64" s="17"/>
     </row>
     <row r="65" spans="1:43">
       <c r="A65" s="3">
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="C65" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="14">
-        <v>43298.75</v>
+        <v>43298.5</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="G65" t="s">
-        <v>327</v>
-      </c>
-      <c r="H65" t="s">
-        <v>328</v>
-      </c>
-      <c r="I65" t="s">
-        <v>329</v>
-      </c>
-      <c r="J65" t="s">
-        <v>329</v>
-      </c>
-      <c r="L65" t="s">
-        <v>329</v>
-      </c>
-      <c r="M65" t="s">
-        <v>329</v>
-      </c>
-      <c r="N65" t="s">
-        <v>330</v>
-      </c>
-      <c r="O65" t="s">
-        <v>331</v>
-      </c>
-      <c r="P65" t="s">
-        <v>332</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="O65" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="17"/>
+      <c r="AD65" s="17"/>
+      <c r="AE65" s="17"/>
+      <c r="AF65" s="17"/>
+      <c r="AG65" s="17"/>
+      <c r="AH65" s="17"/>
+      <c r="AI65" s="17"/>
+      <c r="AJ65" s="17"/>
+      <c r="AK65" s="17"/>
+      <c r="AL65" s="17"/>
+      <c r="AM65" s="17"/>
+      <c r="AN65" s="17"/>
+      <c r="AO65" s="17"/>
+      <c r="AP65" s="17"/>
     </row>
     <row r="66" spans="1:43">
       <c r="A66" s="3">
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C66" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D66" s="14">
-        <v>43298.875</v>
+        <v>43298.75</v>
       </c>
       <c r="E66">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="G66" t="s">
-        <v>335</v>
-      </c>
-      <c r="P66" t="s">
-        <v>336</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="N66" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="O66" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="P66" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="17"/>
+      <c r="AD66" s="17"/>
+      <c r="AE66" s="17"/>
+      <c r="AF66" s="17"/>
+      <c r="AG66" s="17"/>
+      <c r="AH66" s="17"/>
+      <c r="AI66" s="17"/>
+      <c r="AJ66" s="17"/>
+      <c r="AK66" s="17"/>
+      <c r="AL66" s="17"/>
+      <c r="AM66" s="17"/>
+      <c r="AN66" s="17"/>
+      <c r="AO66" s="17"/>
+      <c r="AP66" s="17"/>
     </row>
     <row r="67" spans="1:43">
       <c r="A67" s="3">
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C67" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D67" s="14">
-        <v>43297.833333333336</v>
+        <v>43298.875</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="G67" t="s">
-        <v>378</v>
-      </c>
-      <c r="V67" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>340</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16"/>
+      <c r="AC67" s="17"/>
+      <c r="AD67" s="17"/>
+      <c r="AE67" s="17"/>
+      <c r="AF67" s="17"/>
+      <c r="AG67" s="17"/>
+      <c r="AH67" s="17"/>
+      <c r="AI67" s="17"/>
+      <c r="AJ67" s="17"/>
+      <c r="AK67" s="17"/>
+      <c r="AL67" s="17"/>
+      <c r="AM67" s="17"/>
+      <c r="AN67" s="17"/>
+      <c r="AO67" s="17"/>
+      <c r="AP67" s="17"/>
     </row>
     <row r="68" spans="1:43">
       <c r="A68" s="3">
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="C68" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D68" s="14">
-        <v>42991.961805555555</v>
+        <v>43297.833333333336</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>137</v>
+        <v>325</v>
       </c>
       <c r="G68" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>138</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="17"/>
+      <c r="AD68" s="17"/>
+      <c r="AE68" s="17"/>
+      <c r="AF68" s="17"/>
+      <c r="AG68" s="17"/>
+      <c r="AH68" s="17"/>
+      <c r="AI68" s="17"/>
+      <c r="AJ68" s="17"/>
+      <c r="AK68" s="17"/>
+      <c r="AL68" s="17"/>
+      <c r="AM68" s="17"/>
+      <c r="AN68" s="17"/>
+      <c r="AO68" s="17"/>
+      <c r="AP68" s="17"/>
     </row>
     <row r="69" spans="1:43">
       <c r="A69" s="3">
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>341</v>
+        <v>136</v>
       </c>
       <c r="C69" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D69" s="14">
-        <v>43298</v>
+        <v>42991.961805555555</v>
       </c>
       <c r="E69">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
       <c r="G69" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>344</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="17"/>
+      <c r="AD69" s="17"/>
+      <c r="AE69" s="17"/>
+      <c r="AF69" s="17"/>
+      <c r="AG69" s="17"/>
+      <c r="AH69" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI69" s="17"/>
+      <c r="AJ69" s="17"/>
+      <c r="AK69" s="17"/>
+      <c r="AL69" s="17"/>
+      <c r="AM69" s="17"/>
+      <c r="AN69" s="17"/>
+      <c r="AO69" s="17"/>
+      <c r="AP69" s="17"/>
     </row>
     <row r="70" spans="1:43">
       <c r="A70" s="3">
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C70" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" s="14">
-        <v>43299.958333333336</v>
+        <v>43298</v>
       </c>
       <c r="E70">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="G70" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>347</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="17"/>
+      <c r="AD70" s="17"/>
+      <c r="AE70" s="17"/>
+      <c r="AF70" s="17"/>
+      <c r="AG70" s="17"/>
+      <c r="AH70" s="17"/>
+      <c r="AI70" s="17"/>
+      <c r="AJ70" s="17"/>
+      <c r="AK70" s="17"/>
+      <c r="AL70" s="17"/>
+      <c r="AM70" s="17"/>
+      <c r="AN70" s="17"/>
+      <c r="AO70" s="17"/>
+      <c r="AP70" s="17"/>
     </row>
     <row r="71" spans="1:43">
       <c r="A71" s="3">
@@ -4172,15 +7004,84 @@
       <c r="G71" t="s">
         <v>64</v>
       </c>
-      <c r="AI71" t="s">
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="17"/>
+      <c r="AD71" s="17"/>
+      <c r="AE71" s="17"/>
+      <c r="AF71" s="17"/>
+      <c r="AG71" s="17"/>
+      <c r="AH71" s="17"/>
+      <c r="AI71" s="17" t="s">
         <v>141</v>
       </c>
+      <c r="AJ71" s="17"/>
+      <c r="AK71" s="17"/>
+      <c r="AL71" s="17"/>
+      <c r="AM71" s="17"/>
+      <c r="AN71" s="17"/>
+      <c r="AO71" s="17"/>
+      <c r="AP71" s="17"/>
     </row>
     <row r="72" spans="1:43">
       <c r="A72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="F72"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="17"/>
+      <c r="AD72" s="17"/>
+      <c r="AE72" s="17"/>
+      <c r="AF72" s="17"/>
+      <c r="AG72" s="17"/>
+      <c r="AH72" s="17"/>
+      <c r="AI72" s="17"/>
+      <c r="AJ72" s="17"/>
+      <c r="AK72" s="17"/>
+      <c r="AL72" s="17"/>
+      <c r="AM72" s="17"/>
+      <c r="AN72" s="17"/>
+      <c r="AO72" s="17"/>
+      <c r="AP72" s="17"/>
     </row>
     <row r="73" spans="1:43">
       <c r="A73" s="3" t="s">
@@ -4204,110 +7105,110 @@
       <c r="G73" t="s">
         <v>10</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="N73" t="s">
+      <c r="N73" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="O73" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P73" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q73" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="R73" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="S73" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="T73" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="U73" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="V73" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="W73" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X73" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y73" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z73" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA73" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB73" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC73" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD73" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE73" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF73" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG73" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH73" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI73" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ73" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK73" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL73" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="O73" t="s">
-        <v>47</v>
-      </c>
-      <c r="P73" t="s">
+      <c r="AM73" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="AN73" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="R73" t="s">
+      <c r="AO73" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP73" s="17" t="s">
         <v>351</v>
-      </c>
-      <c r="S73" t="s">
-        <v>352</v>
-      </c>
-      <c r="T73" t="s">
-        <v>353</v>
-      </c>
-      <c r="U73" t="s">
-        <v>354</v>
-      </c>
-      <c r="V73" t="s">
-        <v>355</v>
-      </c>
-      <c r="W73" t="s">
-        <v>356</v>
-      </c>
-      <c r="X73" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>361</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>362</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>363</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>365</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>369</v>
-      </c>
-      <c r="AL73" t="s">
-        <v>370</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>371</v>
-      </c>
-      <c r="AN73" t="s">
-        <v>372</v>
-      </c>
-      <c r="AO73" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP73" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:43">
